--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_23_15.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_23_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>95530.10194342193</v>
+        <v>83732.57434882784</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19684131.35859133</v>
+        <v>19684131.35859134</v>
       </c>
     </row>
     <row r="9">
@@ -1381,49 +1381,49 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>95.44997870766072</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>95.44997870766072</v>
       </c>
       <c r="H11" t="n">
+        <v>84.07234124570758</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
         <v>95.44997870766072</v>
-      </c>
-      <c r="I11" t="n">
-        <v>85.36701961397861</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>56.07678504272411</v>
-      </c>
-      <c r="S11" t="n">
-        <v>95.44997870766072</v>
-      </c>
-      <c r="T11" t="n">
-        <v>38.07851529666556</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1457,13 +1457,13 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>84.21867156634906</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>95.44997870766072</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>95.44997870766072</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>80.49995530864157</v>
@@ -1505,13 +1505,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>95.44997870766072</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>84.21867156634906</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>95.44997870766072</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
         <v>13.91913838429723</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1615,22 +1615,22 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>95.44997870766073</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>95.44997870766073</v>
       </c>
       <c r="G14" t="n">
-        <v>95.44997870766059</v>
+        <v>95.44997870766073</v>
       </c>
       <c r="H14" t="n">
-        <v>95.44997870766059</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>85.36701961397863</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>4.111096708763668</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>79.96124453694388</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>94.15530033938938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1691,22 +1691,22 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>58.98255532642194</v>
+        <v>84.07234124570753</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>95.44997870766073</v>
       </c>
       <c r="F15" t="n">
-        <v>95.44997870766059</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>95.44997870766059</v>
+        <v>95.44997870766073</v>
       </c>
       <c r="H15" t="n">
-        <v>80.49995530864157</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>40.03980931830453</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>95.44997870766073</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>13.91913838429715</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>13.91913838429723</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>121.8916316581076</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>121.8916316581076</v>
       </c>
       <c r="E17" t="n">
-        <v>121.8916316581074</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>121.8916316581074</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>121.8916316581074</v>
+        <v>107.3621491644612</v>
       </c>
       <c r="H17" t="n">
-        <v>25.66137551878138</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>81.70077364567962</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>121.8916316581076</v>
       </c>
     </row>
     <row r="18">
@@ -1922,19 +1922,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>121.8916316581076</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>121.8916316581076</v>
       </c>
       <c r="D18" t="n">
-        <v>121.8916316581074</v>
+        <v>121.8916316581076</v>
       </c>
       <c r="E18" t="n">
-        <v>121.8916316581074</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>121.8916316581074</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>107.362149164461</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>107.3621491644612</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>33.94036506538213</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>33.9403650653819</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>107.3621491644611</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2089,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>121.8916316581076</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>121.8916316581076</v>
       </c>
       <c r="G20" t="n">
-        <v>57.25903180362956</v>
+        <v>121.8916316581076</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>50.10311736083159</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>121.8916316581076</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>121.8916316581076</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>121.8916316581076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2207,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>47.08138215850112</v>
       </c>
       <c r="S21" t="n">
-        <v>107.3621491644611</v>
+        <v>119.3379681607525</v>
       </c>
       <c r="T21" t="n">
+        <v>62.83443050331503</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
         <v>121.8916316581076</v>
       </c>
-      <c r="U21" t="n">
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
         <v>121.8916316581076</v>
-      </c>
-      <c r="V21" t="n">
-        <v>121.8916316581076</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>33.94036506538191</v>
+        <v>33.94036506538212</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2317,64 +2317,64 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>121.8916316581077</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
         <v>107.3621491644612</v>
       </c>
-      <c r="C23" t="n">
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
         <v>121.8916316581077</v>
       </c>
-      <c r="D23" t="n">
+      <c r="U23" t="n">
         <v>121.8916316581077</v>
-      </c>
-      <c r="E23" t="n">
-        <v>121.8916316581077</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2408,16 +2408,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>62.8344305033152</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>80.00854575966319</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>38.28796328765949</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>47.08138215850113</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>119.3379681607525</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2459,13 +2459,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>110.9572717752462</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="X24" t="n">
         <v>121.8916316581077</v>
       </c>
       <c r="Y24" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>33.94036506538207</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>33.94036506538212</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>121.8916316581076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2569,10 +2569,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>107.3621491644612</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>57.25903180362962</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>50.10311736083155</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>121.8916316581076</v>
       </c>
       <c r="T26" t="n">
-        <v>121.8916316581077</v>
+        <v>121.8916316581076</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2617,10 +2617,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2639,16 +2639,16 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>121.8916316581076</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>109.9158126618164</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>62.83443050331507</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2681,16 +2681,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>47.08138215850113</v>
       </c>
       <c r="S27" t="n">
         <v>119.3379681607525</v>
       </c>
       <c r="T27" t="n">
-        <v>121.8916316581077</v>
+        <v>121.8916316581076</v>
       </c>
       <c r="U27" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>33.94036506538207</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>33.94036506538213</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2800,19 +2800,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>121.8916316581077</v>
+        <v>121.8916316581076</v>
       </c>
       <c r="G29" t="n">
-        <v>97.44988981605785</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>81.70077364567959</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,25 +2839,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>50.10311736083155</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>121.8916316581076</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>121.8916316581076</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>107.3621491644612</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2879,10 +2879,10 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>121.8916316581076</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>107.3621491644612</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2921,19 +2921,19 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>107.3621491644612</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>121.8916316581077</v>
+        <v>121.8916316581076</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>121.8916316581076</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2994,28 +2994,28 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
         <v>33.94036506538207</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>121.8916316581076</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
         <v>121.8916316581076</v>
       </c>
-      <c r="T32" t="n">
+      <c r="U32" t="n">
         <v>107.3621491644611</v>
       </c>
-      <c r="U32" t="n">
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
         <v>121.8916316581076</v>
-      </c>
-      <c r="V32" t="n">
-        <v>121.8916316581076</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3113,16 +3113,16 @@
         <v>121.8916316581076</v>
       </c>
       <c r="D33" t="n">
-        <v>121.8916316581076</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>121.8916316581076</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>121.8916316581076</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>107.3621491644611</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>107.3621491644611</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>33.94036506538207</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>33.94036506538208</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>107.3621491644612</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>57.25903180362963</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,10 +3313,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>50.10311736083155</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>121.8916316581076</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3325,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>121.8916316581076</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>121.8916316581076</v>
       </c>
       <c r="Y35" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3353,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>121.8916316581076</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3395,19 +3395,19 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>107.3621491644613</v>
+        <v>119.3379681607525</v>
       </c>
       <c r="T36" t="n">
-        <v>121.8916316581077</v>
+        <v>121.8916316581076</v>
       </c>
       <c r="U36" t="n">
-        <v>121.8916316581077</v>
+        <v>109.9158126618166</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>33.94036506538208</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>33.94036506538207</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>121.8916316581076</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>57.25903180362962</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>50.10311736083155</v>
       </c>
       <c r="S38" t="n">
-        <v>57.25903180362971</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3562,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>121.8916316581076</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>121.8916316581076</v>
       </c>
       <c r="Y38" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3581,10 +3581,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>31.15283838238441</v>
+        <v>111.161384142048</v>
       </c>
       <c r="C39" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3593,13 +3593,13 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>121.8916316581076</v>
       </c>
       <c r="G39" t="n">
         <v>118.0923966805212</v>
       </c>
       <c r="H39" t="n">
-        <v>80.00854575966319</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3647,7 +3647,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>121.8916316581076</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3666,55 +3666,55 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
         <v>33.94036506538207</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>121.8916316581076</v>
+        <v>57.25903180362966</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3754,10 +3754,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="H41" t="n">
-        <v>121.8916316581076</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,16 +3787,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>50.10311736083155</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="T41" t="n">
-        <v>121.8916316581076</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>107.3621491644611</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3821,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>121.8916316581076</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3830,10 +3830,10 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>118.0923966805212</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3872,13 +3872,13 @@
         <v>119.3379681607525</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>113.7150476394028</v>
       </c>
       <c r="U42" t="n">
-        <v>109.9158126618166</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>121.8916316581076</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -3915,43 +3915,43 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
         <v>33.94036506538207</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3979,16 +3979,16 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>57.25903180362994</v>
       </c>
       <c r="D44" t="n">
-        <v>121.8916316581076</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="F44" t="n">
-        <v>121.8916316581076</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>50.10311736083155</v>
+        <v>50.10311736083148</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4036,13 +4036,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>57.2590318036296</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>121.8916316581076</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>69.07418587680196</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4070,13 +4070,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>118.0923966805212</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>38.28796328765949</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4112,16 +4112,16 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>121.8916316581076</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>121.8916316581076</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="W45" t="n">
-        <v>121.8916316581076</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>111.161384142048</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>33.94036506538239</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>33.94036506538207</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>190.2794309447334</v>
+        <v>285.3857949239149</v>
       </c>
       <c r="C11" t="n">
-        <v>190.2794309447334</v>
+        <v>285.3857949239149</v>
       </c>
       <c r="D11" t="n">
-        <v>190.2794309447334</v>
+        <v>285.3857949239149</v>
       </c>
       <c r="E11" t="n">
-        <v>190.2794309447334</v>
+        <v>285.3857949239149</v>
       </c>
       <c r="F11" t="n">
-        <v>190.2794309447334</v>
+        <v>188.9716750171869</v>
       </c>
       <c r="G11" t="n">
-        <v>190.2794309447334</v>
+        <v>92.55755511045889</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8653110380054</v>
+        <v>7.635998296612858</v>
       </c>
       <c r="I11" t="n">
         <v>7.635998296612858</v>
@@ -5047,10 +5047,10 @@
         <v>34.51618156468982</v>
       </c>
       <c r="L11" t="n">
-        <v>91.84957102479591</v>
+        <v>91.84957102479598</v>
       </c>
       <c r="M11" t="n">
-        <v>176.229148099307</v>
+        <v>176.2291480993071</v>
       </c>
       <c r="N11" t="n">
         <v>264.9730503932569</v>
@@ -5065,28 +5065,28 @@
         <v>381.7999148306429</v>
       </c>
       <c r="R11" t="n">
-        <v>325.15669761577</v>
+        <v>381.7999148306429</v>
       </c>
       <c r="S11" t="n">
-        <v>228.7425777090421</v>
+        <v>381.7999148306429</v>
       </c>
       <c r="T11" t="n">
-        <v>190.2794309447334</v>
+        <v>285.3857949239149</v>
       </c>
       <c r="U11" t="n">
-        <v>190.2794309447334</v>
+        <v>285.3857949239149</v>
       </c>
       <c r="V11" t="n">
-        <v>190.2794309447334</v>
+        <v>285.3857949239149</v>
       </c>
       <c r="W11" t="n">
-        <v>190.2794309447334</v>
+        <v>285.3857949239149</v>
       </c>
       <c r="X11" t="n">
-        <v>190.2794309447334</v>
+        <v>285.3857949239149</v>
       </c>
       <c r="Y11" t="n">
-        <v>190.2794309447334</v>
+        <v>285.3857949239149</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>381.7999148306429</v>
+        <v>103.9023097986525</v>
       </c>
       <c r="C12" t="n">
-        <v>381.7999148306429</v>
+        <v>103.9023097986525</v>
       </c>
       <c r="D12" t="n">
-        <v>381.7999148306429</v>
+        <v>103.9023097986525</v>
       </c>
       <c r="E12" t="n">
-        <v>296.7305496121085</v>
+        <v>103.9023097986525</v>
       </c>
       <c r="F12" t="n">
-        <v>200.3164297053805</v>
+        <v>103.9023097986525</v>
       </c>
       <c r="G12" t="n">
         <v>103.9023097986525</v>
@@ -5132,13 +5132,13 @@
         <v>186.2498345339107</v>
       </c>
       <c r="N12" t="n">
-        <v>255.3924507292108</v>
+        <v>280.7453134544948</v>
       </c>
       <c r="O12" t="n">
-        <v>332.269038361535</v>
+        <v>357.621901086819</v>
       </c>
       <c r="P12" t="n">
-        <v>381.4027844380315</v>
+        <v>381.7999148306429</v>
       </c>
       <c r="Q12" t="n">
         <v>381.7999148306429</v>
@@ -5153,19 +5153,19 @@
         <v>381.7999148306429</v>
       </c>
       <c r="U12" t="n">
-        <v>381.7999148306429</v>
+        <v>285.3857949239149</v>
       </c>
       <c r="V12" t="n">
-        <v>381.7999148306429</v>
+        <v>200.3164297053805</v>
       </c>
       <c r="W12" t="n">
-        <v>381.7999148306429</v>
+        <v>103.9023097986525</v>
       </c>
       <c r="X12" t="n">
-        <v>381.7999148306429</v>
+        <v>103.9023097986525</v>
       </c>
       <c r="Y12" t="n">
-        <v>381.7999148306429</v>
+        <v>103.9023097986525</v>
       </c>
     </row>
     <row r="13">
@@ -5223,16 +5223,16 @@
         <v>21.69573403832723</v>
       </c>
       <c r="R13" t="n">
-        <v>7.635998296612858</v>
+        <v>21.69573403832723</v>
       </c>
       <c r="S13" t="n">
-        <v>7.635998296612858</v>
+        <v>21.69573403832723</v>
       </c>
       <c r="T13" t="n">
-        <v>7.635998296612858</v>
+        <v>21.69573403832723</v>
       </c>
       <c r="U13" t="n">
-        <v>7.635998296612858</v>
+        <v>21.69573403832723</v>
       </c>
       <c r="V13" t="n">
         <v>7.635998296612858</v>
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>286.6935508514612</v>
+        <v>301.030980954942</v>
       </c>
       <c r="C14" t="n">
-        <v>286.6935508514612</v>
+        <v>301.030980954942</v>
       </c>
       <c r="D14" t="n">
-        <v>286.6935508514612</v>
+        <v>301.030980954942</v>
       </c>
       <c r="E14" t="n">
-        <v>286.6935508514612</v>
+        <v>204.616861048214</v>
       </c>
       <c r="F14" t="n">
-        <v>286.6935508514612</v>
+        <v>108.202741141486</v>
       </c>
       <c r="G14" t="n">
-        <v>190.2794309447333</v>
+        <v>11.78862123475798</v>
       </c>
       <c r="H14" t="n">
-        <v>93.86531103800542</v>
+        <v>11.78862123475798</v>
       </c>
       <c r="I14" t="n">
-        <v>7.635998296612847</v>
+        <v>11.78862123475798</v>
       </c>
       <c r="J14" t="n">
-        <v>7.635998296612847</v>
+        <v>7.635998296612859</v>
       </c>
       <c r="K14" t="n">
-        <v>34.51618156468965</v>
+        <v>34.51618156468972</v>
       </c>
       <c r="L14" t="n">
-        <v>91.84957102479575</v>
+        <v>91.84957102479588</v>
       </c>
       <c r="M14" t="n">
-        <v>176.2291480993066</v>
+        <v>176.2291480993069</v>
       </c>
       <c r="N14" t="n">
-        <v>264.9730503932564</v>
+        <v>264.9730503932569</v>
       </c>
       <c r="O14" t="n">
-        <v>340.1034810377946</v>
+        <v>340.1034810377953</v>
       </c>
       <c r="P14" t="n">
-        <v>381.7999148306423</v>
+        <v>381.7999148306429</v>
       </c>
       <c r="Q14" t="n">
-        <v>381.7999148306424</v>
+        <v>381.7999148306429</v>
       </c>
       <c r="R14" t="n">
-        <v>381.7999148306424</v>
+        <v>381.7999148306429</v>
       </c>
       <c r="S14" t="n">
-        <v>381.7999148306424</v>
+        <v>381.7999148306429</v>
       </c>
       <c r="T14" t="n">
-        <v>381.7999148306424</v>
+        <v>381.7999148306429</v>
       </c>
       <c r="U14" t="n">
-        <v>381.7999148306424</v>
+        <v>381.7999148306429</v>
       </c>
       <c r="V14" t="n">
-        <v>381.7999148306424</v>
+        <v>381.7999148306429</v>
       </c>
       <c r="W14" t="n">
-        <v>381.7999148306424</v>
+        <v>301.030980954942</v>
       </c>
       <c r="X14" t="n">
-        <v>381.7999148306424</v>
+        <v>301.030980954942</v>
       </c>
       <c r="Y14" t="n">
-        <v>286.6935508514612</v>
+        <v>301.030980954942</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>381.7999148306424</v>
+        <v>285.3857949239149</v>
       </c>
       <c r="C15" t="n">
-        <v>381.7999148306424</v>
+        <v>285.3857949239149</v>
       </c>
       <c r="D15" t="n">
-        <v>322.2215761170849</v>
+        <v>200.4642381100689</v>
       </c>
       <c r="E15" t="n">
-        <v>322.2215761170849</v>
+        <v>104.0501182033409</v>
       </c>
       <c r="F15" t="n">
-        <v>225.807456210357</v>
+        <v>104.0501182033409</v>
       </c>
       <c r="G15" t="n">
-        <v>129.3933363036291</v>
+        <v>7.635998296612859</v>
       </c>
       <c r="H15" t="n">
-        <v>48.0802501332841</v>
+        <v>7.635998296612859</v>
       </c>
       <c r="I15" t="n">
-        <v>7.635998296612847</v>
+        <v>7.635998296612859</v>
       </c>
       <c r="J15" t="n">
-        <v>7.635998296612847</v>
+        <v>7.635998296612859</v>
       </c>
       <c r="K15" t="n">
-        <v>33.3877836930093</v>
+        <v>33.38778369300935</v>
       </c>
       <c r="L15" t="n">
-        <v>98.12388887701835</v>
+        <v>98.12388887701843</v>
       </c>
       <c r="M15" t="n">
-        <v>186.2498345339106</v>
+        <v>186.2498345339107</v>
       </c>
       <c r="N15" t="n">
-        <v>280.7453134544946</v>
+        <v>280.7453134544948</v>
       </c>
       <c r="O15" t="n">
-        <v>332.2690383615346</v>
+        <v>357.621901086819</v>
       </c>
       <c r="P15" t="n">
-        <v>381.4027844380311</v>
+        <v>381.7999148306429</v>
       </c>
       <c r="Q15" t="n">
-        <v>381.7999148306424</v>
+        <v>381.7999148306429</v>
       </c>
       <c r="R15" t="n">
-        <v>381.7999148306424</v>
+        <v>381.7999148306429</v>
       </c>
       <c r="S15" t="n">
-        <v>381.7999148306424</v>
+        <v>285.3857949239149</v>
       </c>
       <c r="T15" t="n">
-        <v>381.7999148306424</v>
+        <v>285.3857949239149</v>
       </c>
       <c r="U15" t="n">
-        <v>381.7999148306424</v>
+        <v>285.3857949239149</v>
       </c>
       <c r="V15" t="n">
-        <v>381.7999148306424</v>
+        <v>285.3857949239149</v>
       </c>
       <c r="W15" t="n">
-        <v>381.7999148306424</v>
+        <v>285.3857949239149</v>
       </c>
       <c r="X15" t="n">
-        <v>381.7999148306424</v>
+        <v>285.3857949239149</v>
       </c>
       <c r="Y15" t="n">
-        <v>381.7999148306424</v>
+        <v>285.3857949239149</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7.635998296612847</v>
+        <v>7.635998296612859</v>
       </c>
       <c r="C16" t="n">
-        <v>7.635998296612847</v>
+        <v>7.635998296612859</v>
       </c>
       <c r="D16" t="n">
-        <v>7.635998296612847</v>
+        <v>7.635998296612859</v>
       </c>
       <c r="E16" t="n">
-        <v>7.635998296612847</v>
+        <v>7.635998296612859</v>
       </c>
       <c r="F16" t="n">
-        <v>7.635998296612847</v>
+        <v>7.635998296612859</v>
       </c>
       <c r="G16" t="n">
-        <v>7.635998296612847</v>
+        <v>7.635998296612859</v>
       </c>
       <c r="H16" t="n">
-        <v>7.635998296612847</v>
+        <v>7.635998296612859</v>
       </c>
       <c r="I16" t="n">
-        <v>7.635998296612847</v>
+        <v>7.635998296612859</v>
       </c>
       <c r="J16" t="n">
-        <v>7.635998296612847</v>
+        <v>7.635998296612859</v>
       </c>
       <c r="K16" t="n">
-        <v>7.635998296612847</v>
+        <v>7.635998296612859</v>
       </c>
       <c r="L16" t="n">
-        <v>9.18187272303107</v>
+        <v>9.181872723031109</v>
       </c>
       <c r="M16" t="n">
-        <v>12.92966451731679</v>
+        <v>12.92966451731686</v>
       </c>
       <c r="N16" t="n">
-        <v>21.69573403832714</v>
+        <v>21.69573403832723</v>
       </c>
       <c r="O16" t="n">
-        <v>21.69573403832714</v>
+        <v>21.69573403832723</v>
       </c>
       <c r="P16" t="n">
-        <v>21.69573403832714</v>
+        <v>21.69573403832723</v>
       </c>
       <c r="Q16" t="n">
-        <v>21.69573403832714</v>
+        <v>21.69573403832723</v>
       </c>
       <c r="R16" t="n">
-        <v>21.69573403832714</v>
+        <v>21.69573403832723</v>
       </c>
       <c r="S16" t="n">
-        <v>7.635998296612847</v>
+        <v>21.69573403832723</v>
       </c>
       <c r="T16" t="n">
-        <v>7.635998296612847</v>
+        <v>21.69573403832723</v>
       </c>
       <c r="U16" t="n">
-        <v>7.635998296612847</v>
+        <v>21.69573403832723</v>
       </c>
       <c r="V16" t="n">
-        <v>7.635998296612847</v>
+        <v>21.69573403832723</v>
       </c>
       <c r="W16" t="n">
-        <v>7.635998296612847</v>
+        <v>7.635998296612859</v>
       </c>
       <c r="X16" t="n">
-        <v>7.635998296612847</v>
+        <v>7.635998296612859</v>
       </c>
       <c r="Y16" t="n">
-        <v>7.635998296612847</v>
+        <v>7.635998296612859</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>487.5665266324295</v>
+        <v>241.3208061110009</v>
       </c>
       <c r="C17" t="n">
-        <v>487.5665266324295</v>
+        <v>241.3208061110009</v>
       </c>
       <c r="D17" t="n">
-        <v>487.5665266324295</v>
+        <v>118.1979458502861</v>
       </c>
       <c r="E17" t="n">
-        <v>364.443666371715</v>
+        <v>118.1979458502861</v>
       </c>
       <c r="F17" t="n">
-        <v>241.3208061110005</v>
+        <v>118.1979458502861</v>
       </c>
       <c r="G17" t="n">
-        <v>118.197945850286</v>
+        <v>9.751330532648611</v>
       </c>
       <c r="H17" t="n">
-        <v>92.27736451818357</v>
+        <v>9.751330532648611</v>
       </c>
       <c r="I17" t="n">
-        <v>9.751330532648591</v>
+        <v>9.751330532648611</v>
       </c>
       <c r="J17" t="n">
-        <v>13.67191254440999</v>
+        <v>13.6719125444101</v>
       </c>
       <c r="K17" t="n">
-        <v>52.52788553388257</v>
+        <v>52.52788553388287</v>
       </c>
       <c r="L17" t="n">
-        <v>124.7183011151461</v>
+        <v>124.7183011151465</v>
       </c>
       <c r="M17" t="n">
-        <v>225.6291823919079</v>
+        <v>225.6291823919084</v>
       </c>
       <c r="N17" t="n">
-        <v>331.1718826730474</v>
+        <v>331.171882673048</v>
       </c>
       <c r="O17" t="n">
-        <v>422.1649418990611</v>
+        <v>422.1649418990619</v>
       </c>
       <c r="P17" t="n">
-        <v>477.3997621913152</v>
+        <v>477.3997621913161</v>
       </c>
       <c r="Q17" t="n">
-        <v>487.5665266324295</v>
+        <v>487.5665266324305</v>
       </c>
       <c r="R17" t="n">
-        <v>487.5665266324295</v>
+        <v>487.5665266324305</v>
       </c>
       <c r="S17" t="n">
-        <v>487.5665266324295</v>
+        <v>487.5665266324305</v>
       </c>
       <c r="T17" t="n">
-        <v>487.5665266324295</v>
+        <v>487.5665266324305</v>
       </c>
       <c r="U17" t="n">
-        <v>487.5665266324295</v>
+        <v>487.5665266324305</v>
       </c>
       <c r="V17" t="n">
-        <v>487.5665266324295</v>
+        <v>487.5665266324305</v>
       </c>
       <c r="W17" t="n">
-        <v>487.5665266324295</v>
+        <v>487.5665266324305</v>
       </c>
       <c r="X17" t="n">
-        <v>487.5665266324295</v>
+        <v>487.5665266324305</v>
       </c>
       <c r="Y17" t="n">
-        <v>487.5665266324295</v>
+        <v>364.4436663717157</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>379.1199113147921</v>
+        <v>255.9970510540782</v>
       </c>
       <c r="C18" t="n">
-        <v>379.1199113147921</v>
+        <v>132.8741907933634</v>
       </c>
       <c r="D18" t="n">
-        <v>255.9970510540776</v>
+        <v>9.751330532648611</v>
       </c>
       <c r="E18" t="n">
-        <v>132.8741907933631</v>
+        <v>9.751330532648611</v>
       </c>
       <c r="F18" t="n">
-        <v>9.751330532648591</v>
+        <v>9.751330532648611</v>
       </c>
       <c r="G18" t="n">
-        <v>9.751330532648591</v>
+        <v>9.751330532648611</v>
       </c>
       <c r="H18" t="n">
-        <v>9.751330532648591</v>
+        <v>9.751330532648611</v>
       </c>
       <c r="I18" t="n">
-        <v>9.751330532648591</v>
+        <v>9.751330532648611</v>
       </c>
       <c r="J18" t="n">
-        <v>9.751330532648591</v>
+        <v>9.751330532648611</v>
       </c>
       <c r="K18" t="n">
-        <v>43.63722270065648</v>
+        <v>43.63722270065727</v>
       </c>
       <c r="L18" t="n">
-        <v>119.310638250221</v>
+        <v>119.310638250222</v>
       </c>
       <c r="M18" t="n">
-        <v>220.1999092241145</v>
+        <v>220.1999092241155</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1250381905274</v>
+        <v>333.1250381905286</v>
       </c>
       <c r="O18" t="n">
-        <v>421.9866026009607</v>
+        <v>421.986602600962</v>
       </c>
       <c r="P18" t="n">
-        <v>480.7393491561069</v>
+        <v>480.7393491561083</v>
       </c>
       <c r="Q18" t="n">
-        <v>487.5665266324295</v>
+        <v>487.5665266324305</v>
       </c>
       <c r="R18" t="n">
-        <v>487.5665266324295</v>
+        <v>487.5665266324305</v>
       </c>
       <c r="S18" t="n">
-        <v>379.1199113147921</v>
+        <v>487.5665266324305</v>
       </c>
       <c r="T18" t="n">
-        <v>379.1199113147921</v>
+        <v>487.5665266324305</v>
       </c>
       <c r="U18" t="n">
-        <v>379.1199113147921</v>
+        <v>487.5665266324305</v>
       </c>
       <c r="V18" t="n">
-        <v>379.1199113147921</v>
+        <v>487.5665266324305</v>
       </c>
       <c r="W18" t="n">
-        <v>379.1199113147921</v>
+        <v>487.5665266324305</v>
       </c>
       <c r="X18" t="n">
-        <v>379.1199113147921</v>
+        <v>379.1199113147929</v>
       </c>
       <c r="Y18" t="n">
-        <v>379.1199113147921</v>
+        <v>379.1199113147929</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>9.751330532648591</v>
+        <v>44.03452756838814</v>
       </c>
       <c r="C19" t="n">
-        <v>9.751330532648591</v>
+        <v>44.03452756838814</v>
       </c>
       <c r="D19" t="n">
-        <v>9.751330532648591</v>
+        <v>44.03452756838814</v>
       </c>
       <c r="E19" t="n">
-        <v>9.751330532648591</v>
+        <v>44.03452756838814</v>
       </c>
       <c r="F19" t="n">
-        <v>9.751330532648591</v>
+        <v>44.03452756838814</v>
       </c>
       <c r="G19" t="n">
-        <v>9.751330532648591</v>
+        <v>9.751330532648611</v>
       </c>
       <c r="H19" t="n">
-        <v>9.751330532648591</v>
+        <v>9.751330532648611</v>
       </c>
       <c r="I19" t="n">
-        <v>9.751330532648591</v>
+        <v>9.751330532648611</v>
       </c>
       <c r="J19" t="n">
-        <v>9.751330532648591</v>
+        <v>9.751330532648611</v>
       </c>
       <c r="K19" t="n">
-        <v>9.751330532648591</v>
+        <v>9.751330532648611</v>
       </c>
       <c r="L19" t="n">
-        <v>17.57578586549597</v>
+        <v>17.57578586549604</v>
       </c>
       <c r="M19" t="n">
-        <v>27.94346090360937</v>
+        <v>27.94346090360951</v>
       </c>
       <c r="N19" t="n">
-        <v>43.17200764107576</v>
+        <v>43.17200764107595</v>
       </c>
       <c r="O19" t="n">
-        <v>44.03452756838789</v>
+        <v>44.03452756838814</v>
       </c>
       <c r="P19" t="n">
-        <v>44.03452756838789</v>
+        <v>44.03452756838814</v>
       </c>
       <c r="Q19" t="n">
-        <v>44.03452756838789</v>
+        <v>44.03452756838814</v>
       </c>
       <c r="R19" t="n">
-        <v>44.03452756838789</v>
+        <v>44.03452756838814</v>
       </c>
       <c r="S19" t="n">
-        <v>44.03452756838789</v>
+        <v>44.03452756838814</v>
       </c>
       <c r="T19" t="n">
-        <v>44.03452756838789</v>
+        <v>44.03452756838814</v>
       </c>
       <c r="U19" t="n">
-        <v>44.03452756838789</v>
+        <v>44.03452756838814</v>
       </c>
       <c r="V19" t="n">
-        <v>9.751330532648591</v>
+        <v>44.03452756838814</v>
       </c>
       <c r="W19" t="n">
-        <v>9.751330532648591</v>
+        <v>44.03452756838814</v>
       </c>
       <c r="X19" t="n">
-        <v>9.751330532648591</v>
+        <v>44.03452756838814</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.751330532648591</v>
+        <v>44.03452756838814</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>67.58873639490069</v>
+        <v>379.1199113147929</v>
       </c>
       <c r="C20" t="n">
-        <v>67.58873639490069</v>
+        <v>379.1199113147929</v>
       </c>
       <c r="D20" t="n">
-        <v>67.58873639490069</v>
+        <v>379.1199113147929</v>
       </c>
       <c r="E20" t="n">
-        <v>67.58873639490069</v>
+        <v>255.9970510540781</v>
       </c>
       <c r="F20" t="n">
-        <v>67.58873639490069</v>
+        <v>132.8741907933634</v>
       </c>
       <c r="G20" t="n">
         <v>9.751330532648607</v>
@@ -5752,52 +5752,52 @@
         <v>9.751330532648607</v>
       </c>
       <c r="J20" t="n">
-        <v>13.67191254440991</v>
+        <v>13.67191254441011</v>
       </c>
       <c r="K20" t="n">
-        <v>52.52788553388251</v>
+        <v>52.52788553388288</v>
       </c>
       <c r="L20" t="n">
-        <v>124.718301115146</v>
+        <v>124.7183011151465</v>
       </c>
       <c r="M20" t="n">
-        <v>225.6291823919078</v>
+        <v>225.6291823919084</v>
       </c>
       <c r="N20" t="n">
-        <v>331.1718826730473</v>
+        <v>331.171882673048</v>
       </c>
       <c r="O20" t="n">
-        <v>422.1649418990612</v>
+        <v>422.1649418990617</v>
       </c>
       <c r="P20" t="n">
-        <v>477.3997621913161</v>
+        <v>477.399762191316</v>
       </c>
       <c r="Q20" t="n">
-        <v>487.5665266324303</v>
+        <v>487.5665266324304</v>
       </c>
       <c r="R20" t="n">
-        <v>436.9573171770449</v>
+        <v>487.5665266324304</v>
       </c>
       <c r="S20" t="n">
-        <v>436.9573171770449</v>
+        <v>487.5665266324304</v>
       </c>
       <c r="T20" t="n">
-        <v>436.9573171770449</v>
+        <v>487.5665266324304</v>
       </c>
       <c r="U20" t="n">
-        <v>436.9573171770449</v>
+        <v>487.5665266324304</v>
       </c>
       <c r="V20" t="n">
-        <v>436.9573171770449</v>
+        <v>487.5665266324304</v>
       </c>
       <c r="W20" t="n">
-        <v>313.8344569163302</v>
+        <v>487.5665266324304</v>
       </c>
       <c r="X20" t="n">
-        <v>190.7115966556154</v>
+        <v>487.5665266324304</v>
       </c>
       <c r="Y20" t="n">
-        <v>67.58873639490069</v>
+        <v>487.5665266324304</v>
       </c>
     </row>
     <row r="21">
@@ -5834,46 +5834,46 @@
         <v>9.751330532648607</v>
       </c>
       <c r="K21" t="n">
-        <v>43.63722270065718</v>
+        <v>43.63722270065727</v>
       </c>
       <c r="L21" t="n">
-        <v>119.3106382502218</v>
+        <v>119.310638250222</v>
       </c>
       <c r="M21" t="n">
-        <v>220.1999092241152</v>
+        <v>220.1999092241155</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1250381905282</v>
+        <v>333.1250381905286</v>
       </c>
       <c r="O21" t="n">
-        <v>421.9866026009616</v>
+        <v>421.986602600962</v>
       </c>
       <c r="P21" t="n">
-        <v>480.7393491561078</v>
+        <v>480.7393491561083</v>
       </c>
       <c r="Q21" t="n">
-        <v>487.5665266324303</v>
+        <v>487.5665266324304</v>
       </c>
       <c r="R21" t="n">
-        <v>487.5665266324303</v>
+        <v>440.0095749571767</v>
       </c>
       <c r="S21" t="n">
-        <v>379.1199113147928</v>
+        <v>319.4661727745984</v>
       </c>
       <c r="T21" t="n">
         <v>255.9970510540781</v>
       </c>
       <c r="U21" t="n">
-        <v>132.8741907933633</v>
+        <v>255.9970510540781</v>
       </c>
       <c r="V21" t="n">
-        <v>9.751330532648607</v>
+        <v>255.9970510540781</v>
       </c>
       <c r="W21" t="n">
-        <v>9.751330532648607</v>
+        <v>132.8741907933634</v>
       </c>
       <c r="X21" t="n">
-        <v>9.751330532648607</v>
+        <v>132.8741907933634</v>
       </c>
       <c r="Y21" t="n">
         <v>9.751330532648607</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>453.283329596691</v>
+        <v>9.751330532648607</v>
       </c>
       <c r="C22" t="n">
-        <v>453.283329596691</v>
+        <v>9.751330532648607</v>
       </c>
       <c r="D22" t="n">
-        <v>453.283329596691</v>
+        <v>9.751330532648607</v>
       </c>
       <c r="E22" t="n">
-        <v>453.283329596691</v>
+        <v>9.751330532648607</v>
       </c>
       <c r="F22" t="n">
-        <v>453.283329596691</v>
+        <v>9.751330532648607</v>
       </c>
       <c r="G22" t="n">
-        <v>453.283329596691</v>
+        <v>9.751330532648607</v>
       </c>
       <c r="H22" t="n">
-        <v>453.283329596691</v>
+        <v>9.751330532648607</v>
       </c>
       <c r="I22" t="n">
-        <v>453.283329596691</v>
+        <v>9.751330532648607</v>
       </c>
       <c r="J22" t="n">
-        <v>453.283329596691</v>
+        <v>9.751330532648607</v>
       </c>
       <c r="K22" t="n">
-        <v>453.283329596691</v>
+        <v>9.751330532648607</v>
       </c>
       <c r="L22" t="n">
-        <v>461.1077849295384</v>
+        <v>17.57578586549604</v>
       </c>
       <c r="M22" t="n">
-        <v>471.4754599676518</v>
+        <v>27.9434609036095</v>
       </c>
       <c r="N22" t="n">
-        <v>486.7040067051182</v>
+        <v>43.17200764107594</v>
       </c>
       <c r="O22" t="n">
-        <v>487.5665266324303</v>
+        <v>44.03452756838813</v>
       </c>
       <c r="P22" t="n">
-        <v>487.5665266324303</v>
+        <v>44.03452756838813</v>
       </c>
       <c r="Q22" t="n">
-        <v>487.5665266324303</v>
+        <v>44.03452756838813</v>
       </c>
       <c r="R22" t="n">
-        <v>487.5665266324303</v>
+        <v>44.03452756838813</v>
       </c>
       <c r="S22" t="n">
-        <v>487.5665266324303</v>
+        <v>44.03452756838813</v>
       </c>
       <c r="T22" t="n">
-        <v>453.283329596691</v>
+        <v>9.751330532648607</v>
       </c>
       <c r="U22" t="n">
-        <v>453.283329596691</v>
+        <v>9.751330532648607</v>
       </c>
       <c r="V22" t="n">
-        <v>453.283329596691</v>
+        <v>9.751330532648607</v>
       </c>
       <c r="W22" t="n">
-        <v>453.283329596691</v>
+        <v>9.751330532648607</v>
       </c>
       <c r="X22" t="n">
-        <v>453.283329596691</v>
+        <v>9.751330532648607</v>
       </c>
       <c r="Y22" t="n">
-        <v>453.283329596691</v>
+        <v>9.751330532648607</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>379.1199113147932</v>
+        <v>118.1979458502862</v>
       </c>
       <c r="C23" t="n">
-        <v>255.9970510540783</v>
+        <v>118.1979458502862</v>
       </c>
       <c r="D23" t="n">
-        <v>132.8741907933635</v>
+        <v>118.1979458502862</v>
       </c>
       <c r="E23" t="n">
         <v>9.751330532648614</v>
@@ -5989,22 +5989,22 @@
         <v>9.751330532648614</v>
       </c>
       <c r="J23" t="n">
-        <v>13.6719125444101</v>
+        <v>13.67191254441019</v>
       </c>
       <c r="K23" t="n">
-        <v>52.52788553388288</v>
+        <v>52.52788553388291</v>
       </c>
       <c r="L23" t="n">
-        <v>124.7183011151466</v>
+        <v>124.7183011151465</v>
       </c>
       <c r="M23" t="n">
-        <v>225.6291823919085</v>
+        <v>225.6291823919084</v>
       </c>
       <c r="N23" t="n">
         <v>331.1718826730481</v>
       </c>
       <c r="O23" t="n">
-        <v>422.164941899062</v>
+        <v>422.1649418990619</v>
       </c>
       <c r="P23" t="n">
         <v>477.3997621913163</v>
@@ -6019,22 +6019,22 @@
         <v>487.5665266324307</v>
       </c>
       <c r="T23" t="n">
-        <v>487.5665266324307</v>
+        <v>364.4436663717158</v>
       </c>
       <c r="U23" t="n">
-        <v>487.5665266324307</v>
+        <v>241.320806111001</v>
       </c>
       <c r="V23" t="n">
-        <v>487.5665266324307</v>
+        <v>241.320806111001</v>
       </c>
       <c r="W23" t="n">
-        <v>487.5665266324307</v>
+        <v>241.320806111001</v>
       </c>
       <c r="X23" t="n">
-        <v>487.5665266324307</v>
+        <v>241.320806111001</v>
       </c>
       <c r="Y23" t="n">
-        <v>487.5665266324307</v>
+        <v>241.320806111001</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>129.2427538127725</v>
+        <v>73.22045225316903</v>
       </c>
       <c r="C24" t="n">
-        <v>129.2427538127725</v>
+        <v>73.22045225316903</v>
       </c>
       <c r="D24" t="n">
-        <v>129.2427538127725</v>
+        <v>73.22045225316903</v>
       </c>
       <c r="E24" t="n">
-        <v>129.2427538127725</v>
+        <v>73.22045225316903</v>
       </c>
       <c r="F24" t="n">
-        <v>129.2427538127725</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="G24" t="n">
-        <v>129.2427538127725</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="H24" t="n">
-        <v>48.42604092422386</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="I24" t="n">
         <v>9.751330532648614</v>
@@ -6071,16 +6071,16 @@
         <v>9.751330532648614</v>
       </c>
       <c r="K24" t="n">
-        <v>43.63722270065728</v>
+        <v>43.63722270065726</v>
       </c>
       <c r="L24" t="n">
-        <v>119.310638250222</v>
+        <v>119.3106382502219</v>
       </c>
       <c r="M24" t="n">
-        <v>220.1999092241155</v>
+        <v>220.1999092241154</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1250381905286</v>
+        <v>333.1250381905285</v>
       </c>
       <c r="O24" t="n">
         <v>421.9866026009618</v>
@@ -6092,28 +6092,28 @@
         <v>487.5665266324307</v>
       </c>
       <c r="R24" t="n">
-        <v>487.5665266324307</v>
+        <v>440.009574957177</v>
       </c>
       <c r="S24" t="n">
-        <v>487.5665266324307</v>
+        <v>319.4661727745987</v>
       </c>
       <c r="T24" t="n">
-        <v>487.5665266324307</v>
+        <v>319.4661727745987</v>
       </c>
       <c r="U24" t="n">
-        <v>487.5665266324307</v>
+        <v>319.4661727745987</v>
       </c>
       <c r="V24" t="n">
-        <v>487.5665266324307</v>
+        <v>319.4661727745987</v>
       </c>
       <c r="W24" t="n">
-        <v>375.4884743342022</v>
+        <v>196.3433125138839</v>
       </c>
       <c r="X24" t="n">
-        <v>252.3656140734874</v>
+        <v>73.22045225316903</v>
       </c>
       <c r="Y24" t="n">
-        <v>129.2427538127725</v>
+        <v>73.22045225316903</v>
       </c>
     </row>
     <row r="25">
@@ -6123,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>9.751330532648614</v>
+        <v>44.03452756838808</v>
       </c>
       <c r="C25" t="n">
-        <v>9.751330532648614</v>
+        <v>44.03452756838808</v>
       </c>
       <c r="D25" t="n">
         <v>9.751330532648614</v>
@@ -6153,46 +6153,46 @@
         <v>9.751330532648614</v>
       </c>
       <c r="L25" t="n">
-        <v>17.57578586549605</v>
+        <v>17.57578586549603</v>
       </c>
       <c r="M25" t="n">
-        <v>27.94346090360951</v>
+        <v>27.94346090360948</v>
       </c>
       <c r="N25" t="n">
-        <v>43.17200764107595</v>
+        <v>43.17200764107591</v>
       </c>
       <c r="O25" t="n">
-        <v>44.03452756838814</v>
+        <v>44.03452756838808</v>
       </c>
       <c r="P25" t="n">
-        <v>44.03452756838814</v>
+        <v>44.03452756838808</v>
       </c>
       <c r="Q25" t="n">
-        <v>44.03452756838814</v>
+        <v>44.03452756838808</v>
       </c>
       <c r="R25" t="n">
-        <v>44.03452756838814</v>
+        <v>44.03452756838808</v>
       </c>
       <c r="S25" t="n">
-        <v>44.03452756838814</v>
+        <v>44.03452756838808</v>
       </c>
       <c r="T25" t="n">
-        <v>44.03452756838814</v>
+        <v>44.03452756838808</v>
       </c>
       <c r="U25" t="n">
-        <v>44.03452756838814</v>
+        <v>44.03452756838808</v>
       </c>
       <c r="V25" t="n">
-        <v>44.03452756838814</v>
+        <v>44.03452756838808</v>
       </c>
       <c r="W25" t="n">
-        <v>44.03452756838814</v>
+        <v>44.03452756838808</v>
       </c>
       <c r="X25" t="n">
-        <v>9.751330532648614</v>
+        <v>44.03452756838808</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.751330532648614</v>
+        <v>44.03452756838808</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>118.1979458502862</v>
+        <v>190.7115966556155</v>
       </c>
       <c r="C26" t="n">
-        <v>118.1979458502862</v>
+        <v>67.58873639490075</v>
       </c>
       <c r="D26" t="n">
-        <v>118.1979458502862</v>
+        <v>67.58873639490075</v>
       </c>
       <c r="E26" t="n">
-        <v>118.1979458502862</v>
+        <v>67.58873639490075</v>
       </c>
       <c r="F26" t="n">
-        <v>118.1979458502862</v>
+        <v>67.58873639490075</v>
       </c>
       <c r="G26" t="n">
-        <v>9.751330532648618</v>
+        <v>67.58873639490075</v>
       </c>
       <c r="H26" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648607</v>
       </c>
       <c r="I26" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648607</v>
       </c>
       <c r="J26" t="n">
-        <v>13.67191254441013</v>
+        <v>13.6719125444101</v>
       </c>
       <c r="K26" t="n">
-        <v>52.52788553388288</v>
+        <v>52.52788553388285</v>
       </c>
       <c r="L26" t="n">
-        <v>124.7183011151466</v>
+        <v>124.7183011151465</v>
       </c>
       <c r="M26" t="n">
-        <v>225.6291823919085</v>
+        <v>225.6291823919084</v>
       </c>
       <c r="N26" t="n">
-        <v>331.1718826730481</v>
+        <v>331.1718826730479</v>
       </c>
       <c r="O26" t="n">
-        <v>422.1649418990621</v>
+        <v>422.1649418990618</v>
       </c>
       <c r="P26" t="n">
-        <v>477.3997621913164</v>
+        <v>477.399762191316</v>
       </c>
       <c r="Q26" t="n">
-        <v>487.5665266324309</v>
+        <v>487.5665266324303</v>
       </c>
       <c r="R26" t="n">
-        <v>487.5665266324309</v>
+        <v>436.957317177045</v>
       </c>
       <c r="S26" t="n">
-        <v>487.5665266324309</v>
+        <v>313.8344569163302</v>
       </c>
       <c r="T26" t="n">
-        <v>364.4436663717159</v>
+        <v>190.7115966556155</v>
       </c>
       <c r="U26" t="n">
-        <v>364.4436663717159</v>
+        <v>190.7115966556155</v>
       </c>
       <c r="V26" t="n">
-        <v>364.4436663717159</v>
+        <v>190.7115966556155</v>
       </c>
       <c r="W26" t="n">
-        <v>241.3208061110011</v>
+        <v>190.7115966556155</v>
       </c>
       <c r="X26" t="n">
-        <v>118.1979458502862</v>
+        <v>190.7115966556155</v>
       </c>
       <c r="Y26" t="n">
-        <v>118.1979458502862</v>
+        <v>190.7115966556155</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>120.7774039284228</v>
+        <v>196.3433125138836</v>
       </c>
       <c r="C27" t="n">
-        <v>120.7774039284228</v>
+        <v>196.3433125138836</v>
       </c>
       <c r="D27" t="n">
-        <v>120.7774039284228</v>
+        <v>73.22045225316889</v>
       </c>
       <c r="E27" t="n">
-        <v>120.7774039284228</v>
+        <v>73.22045225316889</v>
       </c>
       <c r="F27" t="n">
-        <v>9.751330532648618</v>
+        <v>73.22045225316889</v>
       </c>
       <c r="G27" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648607</v>
       </c>
       <c r="H27" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648607</v>
       </c>
       <c r="I27" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648607</v>
       </c>
       <c r="J27" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648607</v>
       </c>
       <c r="K27" t="n">
-        <v>43.63722270065728</v>
+        <v>43.63722270065725</v>
       </c>
       <c r="L27" t="n">
-        <v>119.310638250222</v>
+        <v>119.3106382502219</v>
       </c>
       <c r="M27" t="n">
-        <v>220.1999092241155</v>
+        <v>220.1999092241154</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1250381905286</v>
+        <v>333.1250381905285</v>
       </c>
       <c r="O27" t="n">
-        <v>421.986602600962</v>
+        <v>421.9866026009618</v>
       </c>
       <c r="P27" t="n">
-        <v>480.7393491561083</v>
+        <v>480.7393491561081</v>
       </c>
       <c r="Q27" t="n">
-        <v>487.5665266324309</v>
+        <v>487.5665266324303</v>
       </c>
       <c r="R27" t="n">
-        <v>487.5665266324309</v>
+        <v>440.0095749571767</v>
       </c>
       <c r="S27" t="n">
-        <v>367.0231244498525</v>
+        <v>319.4661727745984</v>
       </c>
       <c r="T27" t="n">
-        <v>243.9002641891376</v>
+        <v>196.3433125138836</v>
       </c>
       <c r="U27" t="n">
-        <v>120.7774039284228</v>
+        <v>196.3433125138836</v>
       </c>
       <c r="V27" t="n">
-        <v>120.7774039284228</v>
+        <v>196.3433125138836</v>
       </c>
       <c r="W27" t="n">
-        <v>120.7774039284228</v>
+        <v>196.3433125138836</v>
       </c>
       <c r="X27" t="n">
-        <v>120.7774039284228</v>
+        <v>196.3433125138836</v>
       </c>
       <c r="Y27" t="n">
-        <v>120.7774039284228</v>
+        <v>196.3433125138836</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648607</v>
       </c>
       <c r="C28" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648607</v>
       </c>
       <c r="D28" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648607</v>
       </c>
       <c r="E28" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648607</v>
       </c>
       <c r="F28" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648607</v>
       </c>
       <c r="G28" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648607</v>
       </c>
       <c r="H28" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648607</v>
       </c>
       <c r="I28" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648607</v>
       </c>
       <c r="J28" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648607</v>
       </c>
       <c r="K28" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648607</v>
       </c>
       <c r="L28" t="n">
-        <v>17.57578586549605</v>
+        <v>17.57578586549603</v>
       </c>
       <c r="M28" t="n">
-        <v>27.94346090360951</v>
+        <v>27.94346090360947</v>
       </c>
       <c r="N28" t="n">
-        <v>43.17200764107596</v>
+        <v>43.1720076410759</v>
       </c>
       <c r="O28" t="n">
-        <v>44.03452756838814</v>
+        <v>44.03452756838807</v>
       </c>
       <c r="P28" t="n">
-        <v>44.03452756838814</v>
+        <v>44.03452756838807</v>
       </c>
       <c r="Q28" t="n">
-        <v>44.03452756838814</v>
+        <v>44.03452756838807</v>
       </c>
       <c r="R28" t="n">
-        <v>44.03452756838814</v>
+        <v>44.03452756838807</v>
       </c>
       <c r="S28" t="n">
-        <v>44.03452756838814</v>
+        <v>44.03452756838807</v>
       </c>
       <c r="T28" t="n">
-        <v>44.03452756838814</v>
+        <v>9.751330532648607</v>
       </c>
       <c r="U28" t="n">
-        <v>44.03452756838814</v>
+        <v>9.751330532648607</v>
       </c>
       <c r="V28" t="n">
-        <v>44.03452756838814</v>
+        <v>9.751330532648607</v>
       </c>
       <c r="W28" t="n">
-        <v>44.03452756838814</v>
+        <v>9.751330532648607</v>
       </c>
       <c r="X28" t="n">
-        <v>44.03452756838814</v>
+        <v>9.751330532648607</v>
       </c>
       <c r="Y28" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648607</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>436.9573171770455</v>
+        <v>132.8741907933634</v>
       </c>
       <c r="C29" t="n">
-        <v>436.9573171770455</v>
+        <v>132.8741907933634</v>
       </c>
       <c r="D29" t="n">
-        <v>436.9573171770455</v>
+        <v>132.8741907933634</v>
       </c>
       <c r="E29" t="n">
-        <v>313.8344569163306</v>
+        <v>132.8741907933634</v>
       </c>
       <c r="F29" t="n">
-        <v>190.7115966556158</v>
+        <v>9.751330532648611</v>
       </c>
       <c r="G29" t="n">
-        <v>92.27736451818357</v>
+        <v>9.751330532648611</v>
       </c>
       <c r="H29" t="n">
-        <v>92.27736451818357</v>
+        <v>9.751330532648611</v>
       </c>
       <c r="I29" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648611</v>
       </c>
       <c r="J29" t="n">
-        <v>13.67191254441002</v>
+        <v>13.6719125444101</v>
       </c>
       <c r="K29" t="n">
-        <v>52.5278855338828</v>
+        <v>52.52788553388285</v>
       </c>
       <c r="L29" t="n">
         <v>124.7183011151465</v>
       </c>
       <c r="M29" t="n">
-        <v>225.6291823919083</v>
+        <v>225.6291823919084</v>
       </c>
       <c r="N29" t="n">
-        <v>331.1718826730481</v>
+        <v>331.171882673048</v>
       </c>
       <c r="O29" t="n">
-        <v>422.1649418990619</v>
+        <v>422.1649418990618</v>
       </c>
       <c r="P29" t="n">
-        <v>477.3997621913164</v>
+        <v>477.3997621913161</v>
       </c>
       <c r="Q29" t="n">
-        <v>487.5665266324309</v>
+        <v>487.5665266324305</v>
       </c>
       <c r="R29" t="n">
-        <v>436.9573171770455</v>
+        <v>487.5665266324305</v>
       </c>
       <c r="S29" t="n">
-        <v>436.9573171770455</v>
+        <v>487.5665266324305</v>
       </c>
       <c r="T29" t="n">
-        <v>436.9573171770455</v>
+        <v>364.4436663717157</v>
       </c>
       <c r="U29" t="n">
-        <v>436.9573171770455</v>
+        <v>364.4436663717157</v>
       </c>
       <c r="V29" t="n">
-        <v>436.9573171770455</v>
+        <v>241.3208061110009</v>
       </c>
       <c r="W29" t="n">
-        <v>436.9573171770455</v>
+        <v>241.3208061110009</v>
       </c>
       <c r="X29" t="n">
-        <v>436.9573171770455</v>
+        <v>132.8741907933634</v>
       </c>
       <c r="Y29" t="n">
-        <v>436.9573171770455</v>
+        <v>132.8741907933634</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>9.751330532648618</v>
+        <v>241.3208061110009</v>
       </c>
       <c r="C30" t="n">
-        <v>9.751330532648618</v>
+        <v>241.3208061110009</v>
       </c>
       <c r="D30" t="n">
-        <v>9.751330532648618</v>
+        <v>241.3208061110009</v>
       </c>
       <c r="E30" t="n">
-        <v>9.751330532648618</v>
+        <v>118.1979458502861</v>
       </c>
       <c r="F30" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648611</v>
       </c>
       <c r="G30" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648611</v>
       </c>
       <c r="H30" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648611</v>
       </c>
       <c r="I30" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648611</v>
       </c>
       <c r="J30" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648318</v>
       </c>
       <c r="K30" t="n">
-        <v>43.63722270065728</v>
+        <v>43.63722270065696</v>
       </c>
       <c r="L30" t="n">
-        <v>119.3106382502219</v>
+        <v>119.3106382502216</v>
       </c>
       <c r="M30" t="n">
-        <v>220.1999092241154</v>
+        <v>220.1999092241151</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1250381905285</v>
+        <v>333.1250381905282</v>
       </c>
       <c r="O30" t="n">
-        <v>421.9866026009619</v>
+        <v>421.9866026009615</v>
       </c>
       <c r="P30" t="n">
-        <v>480.7393491561082</v>
+        <v>480.7393491561078</v>
       </c>
       <c r="Q30" t="n">
-        <v>487.5665266324309</v>
+        <v>487.5665266324305</v>
       </c>
       <c r="R30" t="n">
-        <v>487.5665266324309</v>
+        <v>487.5665266324305</v>
       </c>
       <c r="S30" t="n">
-        <v>379.1199113147932</v>
+        <v>487.5665266324305</v>
       </c>
       <c r="T30" t="n">
-        <v>255.9970510540784</v>
+        <v>487.5665266324305</v>
       </c>
       <c r="U30" t="n">
-        <v>132.8741907933635</v>
+        <v>487.5665266324305</v>
       </c>
       <c r="V30" t="n">
-        <v>9.751330532648618</v>
+        <v>364.4436663717157</v>
       </c>
       <c r="W30" t="n">
-        <v>9.751330532648618</v>
+        <v>241.3208061110009</v>
       </c>
       <c r="X30" t="n">
-        <v>9.751330532648618</v>
+        <v>241.3208061110009</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.751330532648618</v>
+        <v>241.3208061110009</v>
       </c>
     </row>
     <row r="31">
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648611</v>
       </c>
       <c r="C31" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648611</v>
       </c>
       <c r="D31" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648611</v>
       </c>
       <c r="E31" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648611</v>
       </c>
       <c r="F31" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648611</v>
       </c>
       <c r="G31" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648611</v>
       </c>
       <c r="H31" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648611</v>
       </c>
       <c r="I31" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648611</v>
       </c>
       <c r="J31" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648611</v>
       </c>
       <c r="K31" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648611</v>
       </c>
       <c r="L31" t="n">
-        <v>17.57578586549604</v>
+        <v>17.57578586549603</v>
       </c>
       <c r="M31" t="n">
         <v>27.94346090360948</v>
@@ -6636,37 +6636,37 @@
         <v>43.17200764107591</v>
       </c>
       <c r="O31" t="n">
-        <v>44.03452756838809</v>
+        <v>44.03452756838808</v>
       </c>
       <c r="P31" t="n">
-        <v>44.03452756838809</v>
+        <v>44.03452756838808</v>
       </c>
       <c r="Q31" t="n">
-        <v>9.751330532648618</v>
+        <v>44.03452756838808</v>
       </c>
       <c r="R31" t="n">
-        <v>9.751330532648618</v>
+        <v>44.03452756838808</v>
       </c>
       <c r="S31" t="n">
-        <v>9.751330532648618</v>
+        <v>44.03452756838808</v>
       </c>
       <c r="T31" t="n">
-        <v>9.751330532648618</v>
+        <v>44.03452756838808</v>
       </c>
       <c r="U31" t="n">
-        <v>9.751330532648618</v>
+        <v>44.03452756838808</v>
       </c>
       <c r="V31" t="n">
-        <v>9.751330532648618</v>
+        <v>44.03452756838808</v>
       </c>
       <c r="W31" t="n">
-        <v>9.751330532648618</v>
+        <v>44.03452756838808</v>
       </c>
       <c r="X31" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648611</v>
       </c>
       <c r="Y31" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648611</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>9.751330532648607</v>
+        <v>9.751330532648605</v>
       </c>
       <c r="C32" t="n">
-        <v>9.751330532648607</v>
+        <v>9.751330532648605</v>
       </c>
       <c r="D32" t="n">
-        <v>9.751330532648607</v>
+        <v>9.751330532648605</v>
       </c>
       <c r="E32" t="n">
-        <v>9.751330532648607</v>
+        <v>9.751330532648605</v>
       </c>
       <c r="F32" t="n">
-        <v>9.751330532648607</v>
+        <v>9.751330532648605</v>
       </c>
       <c r="G32" t="n">
-        <v>9.751330532648607</v>
+        <v>9.751330532648605</v>
       </c>
       <c r="H32" t="n">
-        <v>9.751330532648607</v>
+        <v>9.751330532648605</v>
       </c>
       <c r="I32" t="n">
-        <v>9.751330532648607</v>
+        <v>9.751330532648605</v>
       </c>
       <c r="J32" t="n">
-        <v>13.67191254441008</v>
+        <v>13.67191254441006</v>
       </c>
       <c r="K32" t="n">
-        <v>52.52788553388284</v>
+        <v>52.52788553388281</v>
       </c>
       <c r="L32" t="n">
-        <v>124.7183011151465</v>
+        <v>124.7183011151463</v>
       </c>
       <c r="M32" t="n">
-        <v>225.6291823919084</v>
+        <v>225.6291823919082</v>
       </c>
       <c r="N32" t="n">
-        <v>331.171882673048</v>
+        <v>331.1718826730478</v>
       </c>
       <c r="O32" t="n">
-        <v>422.1649418990618</v>
+        <v>422.1649418990617</v>
       </c>
       <c r="P32" t="n">
-        <v>477.399762191316</v>
+        <v>477.3997621913159</v>
       </c>
       <c r="Q32" t="n">
-        <v>487.5665266324304</v>
+        <v>487.5665266324303</v>
       </c>
       <c r="R32" t="n">
-        <v>487.5665266324304</v>
+        <v>487.5665266324303</v>
       </c>
       <c r="S32" t="n">
+        <v>487.5665266324303</v>
+      </c>
+      <c r="T32" t="n">
         <v>364.4436663717156</v>
       </c>
-      <c r="T32" t="n">
+      <c r="U32" t="n">
         <v>255.9970510540781</v>
       </c>
-      <c r="U32" t="n">
-        <v>132.8741907933634</v>
-      </c>
       <c r="V32" t="n">
-        <v>9.751330532648607</v>
+        <v>255.9970510540781</v>
       </c>
       <c r="W32" t="n">
-        <v>9.751330532648607</v>
+        <v>255.9970510540781</v>
       </c>
       <c r="X32" t="n">
-        <v>9.751330532648607</v>
+        <v>132.8741907933633</v>
       </c>
       <c r="Y32" t="n">
-        <v>9.751330532648607</v>
+        <v>132.8741907933633</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>379.1199113147929</v>
+        <v>487.5665266324303</v>
       </c>
       <c r="C33" t="n">
-        <v>255.9970510540781</v>
+        <v>364.4436663717156</v>
       </c>
       <c r="D33" t="n">
-        <v>132.8741907933634</v>
+        <v>364.4436663717156</v>
       </c>
       <c r="E33" t="n">
-        <v>9.751330532648607</v>
+        <v>241.3208061110008</v>
       </c>
       <c r="F33" t="n">
-        <v>9.751330532648607</v>
+        <v>118.1979458502861</v>
       </c>
       <c r="G33" t="n">
-        <v>9.751330532648607</v>
+        <v>9.751330532648605</v>
       </c>
       <c r="H33" t="n">
-        <v>9.751330532648607</v>
+        <v>9.751330532648605</v>
       </c>
       <c r="I33" t="n">
-        <v>9.751330532648607</v>
+        <v>9.751330532648605</v>
       </c>
       <c r="J33" t="n">
-        <v>9.751330532648607</v>
+        <v>9.75133053264809</v>
       </c>
       <c r="K33" t="n">
-        <v>43.63722270065725</v>
+        <v>43.63722270065674</v>
       </c>
       <c r="L33" t="n">
-        <v>119.3106382502219</v>
+        <v>119.3106382502214</v>
       </c>
       <c r="M33" t="n">
-        <v>220.1999092241154</v>
+        <v>220.1999092241149</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1250381905285</v>
+        <v>333.125038190528</v>
       </c>
       <c r="O33" t="n">
-        <v>421.9866026009618</v>
+        <v>421.9866026009613</v>
       </c>
       <c r="P33" t="n">
-        <v>480.7393491561081</v>
+        <v>480.7393491561076</v>
       </c>
       <c r="Q33" t="n">
-        <v>487.5665266324304</v>
+        <v>487.5665266324303</v>
       </c>
       <c r="R33" t="n">
-        <v>487.5665266324304</v>
+        <v>487.5665266324303</v>
       </c>
       <c r="S33" t="n">
-        <v>379.1199113147929</v>
+        <v>487.5665266324303</v>
       </c>
       <c r="T33" t="n">
-        <v>379.1199113147929</v>
+        <v>487.5665266324303</v>
       </c>
       <c r="U33" t="n">
-        <v>379.1199113147929</v>
+        <v>487.5665266324303</v>
       </c>
       <c r="V33" t="n">
-        <v>379.1199113147929</v>
+        <v>487.5665266324303</v>
       </c>
       <c r="W33" t="n">
-        <v>379.1199113147929</v>
+        <v>487.5665266324303</v>
       </c>
       <c r="X33" t="n">
-        <v>379.1199113147929</v>
+        <v>487.5665266324303</v>
       </c>
       <c r="Y33" t="n">
-        <v>379.1199113147929</v>
+        <v>487.5665266324303</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>487.5665266324304</v>
+        <v>9.751330532648605</v>
       </c>
       <c r="C34" t="n">
-        <v>487.5665266324304</v>
+        <v>9.751330532648605</v>
       </c>
       <c r="D34" t="n">
-        <v>453.2833295966909</v>
+        <v>9.751330532648605</v>
       </c>
       <c r="E34" t="n">
-        <v>453.2833295966909</v>
+        <v>9.751330532648605</v>
       </c>
       <c r="F34" t="n">
-        <v>453.2833295966909</v>
+        <v>9.751330532648605</v>
       </c>
       <c r="G34" t="n">
-        <v>453.2833295966909</v>
+        <v>9.751330532648605</v>
       </c>
       <c r="H34" t="n">
-        <v>453.2833295966909</v>
+        <v>9.751330532648605</v>
       </c>
       <c r="I34" t="n">
-        <v>453.2833295966909</v>
+        <v>9.751330532648605</v>
       </c>
       <c r="J34" t="n">
-        <v>453.2833295966909</v>
+        <v>9.751330532648605</v>
       </c>
       <c r="K34" t="n">
-        <v>453.2833295966909</v>
+        <v>9.751330532648605</v>
       </c>
       <c r="L34" t="n">
-        <v>461.1077849295384</v>
+        <v>17.57578586549602</v>
       </c>
       <c r="M34" t="n">
-        <v>471.4754599676518</v>
+        <v>27.94346090360947</v>
       </c>
       <c r="N34" t="n">
-        <v>486.7040067051182</v>
+        <v>43.1720076410759</v>
       </c>
       <c r="O34" t="n">
-        <v>487.5665266324304</v>
+        <v>44.03452756838807</v>
       </c>
       <c r="P34" t="n">
-        <v>487.5665266324304</v>
+        <v>44.03452756838807</v>
       </c>
       <c r="Q34" t="n">
-        <v>487.5665266324304</v>
+        <v>44.03452756838807</v>
       </c>
       <c r="R34" t="n">
-        <v>487.5665266324304</v>
+        <v>44.03452756838807</v>
       </c>
       <c r="S34" t="n">
-        <v>487.5665266324304</v>
+        <v>44.03452756838807</v>
       </c>
       <c r="T34" t="n">
-        <v>487.5665266324304</v>
+        <v>44.03452756838807</v>
       </c>
       <c r="U34" t="n">
-        <v>487.5665266324304</v>
+        <v>44.03452756838807</v>
       </c>
       <c r="V34" t="n">
-        <v>487.5665266324304</v>
+        <v>44.03452756838807</v>
       </c>
       <c r="W34" t="n">
-        <v>487.5665266324304</v>
+        <v>44.03452756838807</v>
       </c>
       <c r="X34" t="n">
-        <v>487.5665266324304</v>
+        <v>44.03452756838807</v>
       </c>
       <c r="Y34" t="n">
-        <v>487.5665266324304</v>
+        <v>44.03452756838807</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>255.9970510540783</v>
+        <v>67.58873639490076</v>
       </c>
       <c r="C35" t="n">
-        <v>255.9970510540783</v>
+        <v>67.58873639490076</v>
       </c>
       <c r="D35" t="n">
-        <v>132.8741907933635</v>
+        <v>67.58873639490076</v>
       </c>
       <c r="E35" t="n">
-        <v>9.751330532648614</v>
+        <v>67.58873639490076</v>
       </c>
       <c r="F35" t="n">
-        <v>9.751330532648614</v>
+        <v>67.58873639490076</v>
       </c>
       <c r="G35" t="n">
-        <v>9.751330532648614</v>
+        <v>67.58873639490076</v>
       </c>
       <c r="H35" t="n">
-        <v>9.751330532648614</v>
+        <v>67.58873639490076</v>
       </c>
       <c r="I35" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648611</v>
       </c>
       <c r="J35" t="n">
-        <v>13.67191254441019</v>
+        <v>13.6719125444101</v>
       </c>
       <c r="K35" t="n">
-        <v>52.52788553388309</v>
+        <v>52.52788553388285</v>
       </c>
       <c r="L35" t="n">
-        <v>124.7183011151467</v>
+        <v>124.7183011151465</v>
       </c>
       <c r="M35" t="n">
-        <v>225.6291823919086</v>
+        <v>225.6291823919084</v>
       </c>
       <c r="N35" t="n">
-        <v>331.1718826730482</v>
+        <v>331.171882673048</v>
       </c>
       <c r="O35" t="n">
-        <v>422.164941899062</v>
+        <v>422.1649418990618</v>
       </c>
       <c r="P35" t="n">
-        <v>477.3997621913163</v>
+        <v>477.3997621913161</v>
       </c>
       <c r="Q35" t="n">
-        <v>487.5665266324307</v>
+        <v>487.5665266324305</v>
       </c>
       <c r="R35" t="n">
-        <v>487.5665266324307</v>
+        <v>436.9573171770451</v>
       </c>
       <c r="S35" t="n">
-        <v>487.5665266324307</v>
+        <v>313.8344569163303</v>
       </c>
       <c r="T35" t="n">
-        <v>487.5665266324307</v>
+        <v>313.8344569163303</v>
       </c>
       <c r="U35" t="n">
-        <v>487.5665266324307</v>
+        <v>313.8344569163303</v>
       </c>
       <c r="V35" t="n">
-        <v>487.5665266324307</v>
+        <v>190.7115966556156</v>
       </c>
       <c r="W35" t="n">
-        <v>487.5665266324307</v>
+        <v>190.7115966556156</v>
       </c>
       <c r="X35" t="n">
-        <v>487.5665266324307</v>
+        <v>67.58873639490076</v>
       </c>
       <c r="Y35" t="n">
-        <v>364.4436663717158</v>
+        <v>67.58873639490076</v>
       </c>
     </row>
     <row r="36">
@@ -6992,34 +6992,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>9.751330532648614</v>
+        <v>132.8741907933634</v>
       </c>
       <c r="C36" t="n">
-        <v>9.751330532648614</v>
+        <v>132.8741907933634</v>
       </c>
       <c r="D36" t="n">
-        <v>9.751330532648614</v>
+        <v>132.8741907933634</v>
       </c>
       <c r="E36" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648611</v>
       </c>
       <c r="F36" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648611</v>
       </c>
       <c r="G36" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648611</v>
       </c>
       <c r="H36" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648611</v>
       </c>
       <c r="I36" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648611</v>
       </c>
       <c r="J36" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648611</v>
       </c>
       <c r="K36" t="n">
-        <v>43.63722270065726</v>
+        <v>43.63722270065725</v>
       </c>
       <c r="L36" t="n">
         <v>119.3106382502219</v>
@@ -7043,25 +7043,25 @@
         <v>487.5665266324308</v>
       </c>
       <c r="S36" t="n">
-        <v>379.1199113147931</v>
+        <v>367.0231244498525</v>
       </c>
       <c r="T36" t="n">
-        <v>255.9970510540783</v>
+        <v>243.9002641891377</v>
       </c>
       <c r="U36" t="n">
-        <v>132.8741907933635</v>
+        <v>132.8741907933634</v>
       </c>
       <c r="V36" t="n">
-        <v>132.8741907933635</v>
+        <v>132.8741907933634</v>
       </c>
       <c r="W36" t="n">
-        <v>9.751330532648614</v>
+        <v>132.8741907933634</v>
       </c>
       <c r="X36" t="n">
-        <v>9.751330532648614</v>
+        <v>132.8741907933634</v>
       </c>
       <c r="Y36" t="n">
-        <v>9.751330532648614</v>
+        <v>132.8741907933634</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>487.5665266324307</v>
+        <v>9.751330532648611</v>
       </c>
       <c r="C37" t="n">
-        <v>453.2833295966912</v>
+        <v>9.751330532648611</v>
       </c>
       <c r="D37" t="n">
-        <v>453.2833295966912</v>
+        <v>9.751330532648611</v>
       </c>
       <c r="E37" t="n">
-        <v>453.2833295966912</v>
+        <v>9.751330532648611</v>
       </c>
       <c r="F37" t="n">
-        <v>453.2833295966912</v>
+        <v>9.751330532648611</v>
       </c>
       <c r="G37" t="n">
-        <v>453.2833295966912</v>
+        <v>9.751330532648611</v>
       </c>
       <c r="H37" t="n">
-        <v>453.2833295966912</v>
+        <v>9.751330532648611</v>
       </c>
       <c r="I37" t="n">
-        <v>453.2833295966912</v>
+        <v>9.751330532648611</v>
       </c>
       <c r="J37" t="n">
-        <v>453.2833295966912</v>
+        <v>9.751330532648611</v>
       </c>
       <c r="K37" t="n">
-        <v>453.2833295966912</v>
+        <v>9.751330532648611</v>
       </c>
       <c r="L37" t="n">
-        <v>461.1077849295386</v>
+        <v>17.57578586549603</v>
       </c>
       <c r="M37" t="n">
-        <v>471.4754599676521</v>
+        <v>27.94346090360948</v>
       </c>
       <c r="N37" t="n">
-        <v>486.7040067051185</v>
+        <v>43.17200764107591</v>
       </c>
       <c r="O37" t="n">
-        <v>487.5665266324307</v>
+        <v>44.03452756838808</v>
       </c>
       <c r="P37" t="n">
-        <v>487.5665266324307</v>
+        <v>44.03452756838808</v>
       </c>
       <c r="Q37" t="n">
-        <v>487.5665266324307</v>
+        <v>44.03452756838808</v>
       </c>
       <c r="R37" t="n">
-        <v>487.5665266324307</v>
+        <v>44.03452756838808</v>
       </c>
       <c r="S37" t="n">
-        <v>487.5665266324307</v>
+        <v>44.03452756838808</v>
       </c>
       <c r="T37" t="n">
-        <v>487.5665266324307</v>
+        <v>44.03452756838808</v>
       </c>
       <c r="U37" t="n">
-        <v>487.5665266324307</v>
+        <v>9.751330532648611</v>
       </c>
       <c r="V37" t="n">
-        <v>487.5665266324307</v>
+        <v>9.751330532648611</v>
       </c>
       <c r="W37" t="n">
-        <v>487.5665266324307</v>
+        <v>9.751330532648611</v>
       </c>
       <c r="X37" t="n">
-        <v>487.5665266324307</v>
+        <v>9.751330532648611</v>
       </c>
       <c r="Y37" t="n">
-        <v>487.5665266324307</v>
+        <v>9.751330532648611</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>9.751330532648618</v>
+        <v>190.7115966556155</v>
       </c>
       <c r="C38" t="n">
-        <v>9.751330532648618</v>
+        <v>190.7115966556155</v>
       </c>
       <c r="D38" t="n">
-        <v>9.751330532648618</v>
+        <v>190.7115966556155</v>
       </c>
       <c r="E38" t="n">
-        <v>9.751330532648618</v>
+        <v>67.58873639490075</v>
       </c>
       <c r="F38" t="n">
-        <v>9.751330532648618</v>
+        <v>67.58873639490075</v>
       </c>
       <c r="G38" t="n">
-        <v>9.751330532648618</v>
+        <v>67.58873639490075</v>
       </c>
       <c r="H38" t="n">
-        <v>9.751330532648618</v>
+        <v>67.58873639490075</v>
       </c>
       <c r="I38" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648607</v>
       </c>
       <c r="J38" t="n">
-        <v>13.67191254441019</v>
+        <v>13.6719125444101</v>
       </c>
       <c r="K38" t="n">
-        <v>52.52788553388291</v>
+        <v>52.52788553388285</v>
       </c>
       <c r="L38" t="n">
         <v>124.7183011151465</v>
@@ -7186,40 +7186,40 @@
         <v>225.6291823919084</v>
       </c>
       <c r="N38" t="n">
-        <v>331.1718826730481</v>
+        <v>331.1718826730479</v>
       </c>
       <c r="O38" t="n">
-        <v>422.1649418990619</v>
+        <v>422.1649418990618</v>
       </c>
       <c r="P38" t="n">
-        <v>477.3997621913165</v>
+        <v>477.399762191316</v>
       </c>
       <c r="Q38" t="n">
-        <v>487.5665266324309</v>
+        <v>487.5665266324303</v>
       </c>
       <c r="R38" t="n">
-        <v>436.9573171770455</v>
+        <v>436.957317177045</v>
       </c>
       <c r="S38" t="n">
-        <v>379.1199113147933</v>
+        <v>436.957317177045</v>
       </c>
       <c r="T38" t="n">
-        <v>379.1199113147933</v>
+        <v>436.957317177045</v>
       </c>
       <c r="U38" t="n">
-        <v>379.1199113147933</v>
+        <v>436.957317177045</v>
       </c>
       <c r="V38" t="n">
-        <v>255.9970510540784</v>
+        <v>436.957317177045</v>
       </c>
       <c r="W38" t="n">
-        <v>255.9970510540784</v>
+        <v>313.8344569163302</v>
       </c>
       <c r="X38" t="n">
-        <v>255.9970510540784</v>
+        <v>190.7115966556155</v>
       </c>
       <c r="Y38" t="n">
-        <v>132.8741907933635</v>
+        <v>190.7115966556155</v>
       </c>
     </row>
     <row r="39">
@@ -7229,34 +7229,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>332.9761528541559</v>
+        <v>252.159439965607</v>
       </c>
       <c r="C39" t="n">
-        <v>209.853292593441</v>
+        <v>252.159439965607</v>
       </c>
       <c r="D39" t="n">
-        <v>209.853292593441</v>
+        <v>252.159439965607</v>
       </c>
       <c r="E39" t="n">
-        <v>209.853292593441</v>
+        <v>252.159439965607</v>
       </c>
       <c r="F39" t="n">
-        <v>209.853292593441</v>
+        <v>129.0365797048923</v>
       </c>
       <c r="G39" t="n">
-        <v>90.5680434211973</v>
+        <v>9.751330532648607</v>
       </c>
       <c r="H39" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648607</v>
       </c>
       <c r="I39" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648607</v>
       </c>
       <c r="J39" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648607</v>
       </c>
       <c r="K39" t="n">
-        <v>43.63722270065726</v>
+        <v>43.63722270065725</v>
       </c>
       <c r="L39" t="n">
         <v>119.3106382502219</v>
@@ -7283,22 +7283,22 @@
         <v>487.5665266324308</v>
       </c>
       <c r="T39" t="n">
-        <v>364.4436663717159</v>
+        <v>487.5665266324308</v>
       </c>
       <c r="U39" t="n">
-        <v>364.4436663717159</v>
+        <v>487.5665266324308</v>
       </c>
       <c r="V39" t="n">
-        <v>364.4436663717159</v>
+        <v>487.5665266324308</v>
       </c>
       <c r="W39" t="n">
-        <v>364.4436663717159</v>
+        <v>487.5665266324308</v>
       </c>
       <c r="X39" t="n">
-        <v>364.4436663717159</v>
+        <v>364.4436663717161</v>
       </c>
       <c r="Y39" t="n">
-        <v>364.4436663717159</v>
+        <v>364.4436663717161</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>44.03452756838809</v>
+        <v>9.751330532648607</v>
       </c>
       <c r="C40" t="n">
-        <v>44.03452756838809</v>
+        <v>9.751330532648607</v>
       </c>
       <c r="D40" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648607</v>
       </c>
       <c r="E40" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648607</v>
       </c>
       <c r="F40" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648607</v>
       </c>
       <c r="G40" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648607</v>
       </c>
       <c r="H40" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648607</v>
       </c>
       <c r="I40" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648607</v>
       </c>
       <c r="J40" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648607</v>
       </c>
       <c r="K40" t="n">
-        <v>9.751330532648618</v>
+        <v>9.751330532648607</v>
       </c>
       <c r="L40" t="n">
-        <v>17.57578586549604</v>
+        <v>17.57578586549603</v>
       </c>
       <c r="M40" t="n">
-        <v>27.94346090360948</v>
+        <v>27.94346090360947</v>
       </c>
       <c r="N40" t="n">
-        <v>43.17200764107591</v>
+        <v>43.1720076410759</v>
       </c>
       <c r="O40" t="n">
-        <v>44.03452756838809</v>
+        <v>44.03452756838807</v>
       </c>
       <c r="P40" t="n">
-        <v>44.03452756838809</v>
+        <v>44.03452756838807</v>
       </c>
       <c r="Q40" t="n">
-        <v>44.03452756838809</v>
+        <v>44.03452756838807</v>
       </c>
       <c r="R40" t="n">
-        <v>44.03452756838809</v>
+        <v>44.03452756838807</v>
       </c>
       <c r="S40" t="n">
-        <v>44.03452756838809</v>
+        <v>44.03452756838807</v>
       </c>
       <c r="T40" t="n">
-        <v>44.03452756838809</v>
+        <v>9.751330532648607</v>
       </c>
       <c r="U40" t="n">
-        <v>44.03452756838809</v>
+        <v>9.751330532648607</v>
       </c>
       <c r="V40" t="n">
-        <v>44.03452756838809</v>
+        <v>9.751330532648607</v>
       </c>
       <c r="W40" t="n">
-        <v>44.03452756838809</v>
+        <v>9.751330532648607</v>
       </c>
       <c r="X40" t="n">
-        <v>44.03452756838809</v>
+        <v>9.751330532648607</v>
       </c>
       <c r="Y40" t="n">
-        <v>44.03452756838809</v>
+        <v>9.751330532648607</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>255.9970510540782</v>
+        <v>313.8344569163305</v>
       </c>
       <c r="C41" t="n">
-        <v>132.8741907933634</v>
+        <v>255.9970510540783</v>
       </c>
       <c r="D41" t="n">
-        <v>132.8741907933634</v>
+        <v>132.8741907933635</v>
       </c>
       <c r="E41" t="n">
-        <v>132.8741907933634</v>
+        <v>132.8741907933635</v>
       </c>
       <c r="F41" t="n">
-        <v>132.8741907933634</v>
+        <v>132.8741907933635</v>
       </c>
       <c r="G41" t="n">
-        <v>132.8741907933634</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="H41" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="I41" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="J41" t="n">
-        <v>13.67191254441008</v>
+        <v>13.67191254441013</v>
       </c>
       <c r="K41" t="n">
-        <v>52.52788553388285</v>
+        <v>52.52788553388314</v>
       </c>
       <c r="L41" t="n">
-        <v>124.7183011151465</v>
+        <v>124.7183011151468</v>
       </c>
       <c r="M41" t="n">
-        <v>225.6291823919084</v>
+        <v>225.6291823919087</v>
       </c>
       <c r="N41" t="n">
-        <v>331.171882673048</v>
+        <v>331.1718826730483</v>
       </c>
       <c r="O41" t="n">
-        <v>422.1649418990618</v>
+        <v>422.1649418990621</v>
       </c>
       <c r="P41" t="n">
-        <v>477.399762191316</v>
+        <v>477.3997621913163</v>
       </c>
       <c r="Q41" t="n">
-        <v>487.5665266324305</v>
+        <v>487.5665266324307</v>
       </c>
       <c r="R41" t="n">
-        <v>487.5665266324305</v>
+        <v>436.9573171770453</v>
       </c>
       <c r="S41" t="n">
-        <v>487.5665266324305</v>
+        <v>313.8344569163305</v>
       </c>
       <c r="T41" t="n">
-        <v>364.4436663717157</v>
+        <v>313.8344569163305</v>
       </c>
       <c r="U41" t="n">
-        <v>255.9970510540782</v>
+        <v>313.8344569163305</v>
       </c>
       <c r="V41" t="n">
-        <v>255.9970510540782</v>
+        <v>313.8344569163305</v>
       </c>
       <c r="W41" t="n">
-        <v>255.9970510540782</v>
+        <v>313.8344569163305</v>
       </c>
       <c r="X41" t="n">
-        <v>255.9970510540782</v>
+        <v>313.8344569163305</v>
       </c>
       <c r="Y41" t="n">
-        <v>255.9970510540782</v>
+        <v>313.8344569163305</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>132.8741907933634</v>
+        <v>252.1594399656071</v>
       </c>
       <c r="C42" t="n">
-        <v>9.751330532648609</v>
+        <v>252.1594399656071</v>
       </c>
       <c r="D42" t="n">
-        <v>9.751330532648609</v>
+        <v>252.1594399656071</v>
       </c>
       <c r="E42" t="n">
-        <v>9.751330532648609</v>
+        <v>252.1594399656071</v>
       </c>
       <c r="F42" t="n">
-        <v>9.751330532648609</v>
+        <v>129.0365797048923</v>
       </c>
       <c r="G42" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="H42" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="I42" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="J42" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="K42" t="n">
-        <v>43.63722270065725</v>
+        <v>43.63722270065726</v>
       </c>
       <c r="L42" t="n">
         <v>119.3106382502219</v>
       </c>
       <c r="M42" t="n">
-        <v>220.1999092241154</v>
+        <v>220.1999092241153</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1250381905285</v>
+        <v>333.1250381905284</v>
       </c>
       <c r="O42" t="n">
         <v>421.9866026009618</v>
       </c>
       <c r="P42" t="n">
-        <v>480.7393491561081</v>
+        <v>480.739349156108</v>
       </c>
       <c r="Q42" t="n">
-        <v>487.5665266324308</v>
+        <v>487.5665266324307</v>
       </c>
       <c r="R42" t="n">
-        <v>487.5665266324308</v>
+        <v>487.5665266324307</v>
       </c>
       <c r="S42" t="n">
-        <v>367.0231244498525</v>
+        <v>367.0231244498524</v>
       </c>
       <c r="T42" t="n">
-        <v>367.0231244498525</v>
+        <v>252.1594399656071</v>
       </c>
       <c r="U42" t="n">
-        <v>255.9970510540782</v>
+        <v>252.1594399656071</v>
       </c>
       <c r="V42" t="n">
-        <v>132.8741907933634</v>
+        <v>252.1594399656071</v>
       </c>
       <c r="W42" t="n">
-        <v>132.8741907933634</v>
+        <v>252.1594399656071</v>
       </c>
       <c r="X42" t="n">
-        <v>132.8741907933634</v>
+        <v>252.1594399656071</v>
       </c>
       <c r="Y42" t="n">
-        <v>132.8741907933634</v>
+        <v>252.1594399656071</v>
       </c>
     </row>
     <row r="43">
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>44.03452756838808</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="C43" t="n">
-        <v>44.03452756838808</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="D43" t="n">
-        <v>44.03452756838808</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="E43" t="n">
-        <v>44.03452756838808</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="F43" t="n">
-        <v>44.03452756838808</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="G43" t="n">
-        <v>44.03452756838808</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="H43" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="I43" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="J43" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="K43" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="L43" t="n">
         <v>17.57578586549603</v>
@@ -7599,22 +7599,22 @@
         <v>44.03452756838808</v>
       </c>
       <c r="T43" t="n">
-        <v>44.03452756838808</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="U43" t="n">
-        <v>44.03452756838808</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="V43" t="n">
-        <v>44.03452756838808</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="W43" t="n">
-        <v>44.03452756838808</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="X43" t="n">
-        <v>44.03452756838808</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="Y43" t="n">
-        <v>44.03452756838808</v>
+        <v>9.751330532648614</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>255.9970510540782</v>
+        <v>436.9573171770463</v>
       </c>
       <c r="C44" t="n">
-        <v>255.9970510540782</v>
+        <v>379.1199113147938</v>
       </c>
       <c r="D44" t="n">
-        <v>132.8741907933634</v>
+        <v>255.9970510540787</v>
       </c>
       <c r="E44" t="n">
-        <v>132.8741907933634</v>
+        <v>132.8741907933637</v>
       </c>
       <c r="F44" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="G44" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="H44" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="I44" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="J44" t="n">
-        <v>13.6719125444101</v>
+        <v>13.67191254441013</v>
       </c>
       <c r="K44" t="n">
-        <v>52.52788553388285</v>
+        <v>52.52788553388308</v>
       </c>
       <c r="L44" t="n">
-        <v>124.7183011151465</v>
+        <v>124.7183011151469</v>
       </c>
       <c r="M44" t="n">
-        <v>225.6291823919084</v>
+        <v>225.629182391909</v>
       </c>
       <c r="N44" t="n">
-        <v>331.171882673048</v>
+        <v>331.1718826730487</v>
       </c>
       <c r="O44" t="n">
-        <v>422.1649418990618</v>
+        <v>422.1649418990627</v>
       </c>
       <c r="P44" t="n">
-        <v>477.399762191316</v>
+        <v>477.3997621913171</v>
       </c>
       <c r="Q44" t="n">
-        <v>487.5665266324305</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="R44" t="n">
-        <v>436.9573171770451</v>
+        <v>436.9573171770463</v>
       </c>
       <c r="S44" t="n">
-        <v>436.9573171770451</v>
+        <v>436.9573171770463</v>
       </c>
       <c r="T44" t="n">
-        <v>436.9573171770451</v>
+        <v>436.9573171770463</v>
       </c>
       <c r="U44" t="n">
-        <v>436.9573171770451</v>
+        <v>436.9573171770463</v>
       </c>
       <c r="V44" t="n">
-        <v>379.1199113147929</v>
+        <v>436.9573171770463</v>
       </c>
       <c r="W44" t="n">
-        <v>379.1199113147929</v>
+        <v>436.9573171770463</v>
       </c>
       <c r="X44" t="n">
-        <v>255.9970510540782</v>
+        <v>436.9573171770463</v>
       </c>
       <c r="Y44" t="n">
-        <v>255.9970510540782</v>
+        <v>436.9573171770463</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>48.42604092422386</v>
+        <v>129.0365797048923</v>
       </c>
       <c r="C45" t="n">
-        <v>48.42604092422386</v>
+        <v>129.0365797048923</v>
       </c>
       <c r="D45" t="n">
-        <v>48.42604092422386</v>
+        <v>129.0365797048923</v>
       </c>
       <c r="E45" t="n">
-        <v>48.42604092422386</v>
+        <v>129.0365797048923</v>
       </c>
       <c r="F45" t="n">
-        <v>48.42604092422386</v>
+        <v>129.0365797048923</v>
       </c>
       <c r="G45" t="n">
-        <v>48.42604092422386</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="H45" t="n">
-        <v>48.42604092422386</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="I45" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="J45" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="K45" t="n">
-        <v>43.63722270065725</v>
+        <v>43.63722270065738</v>
       </c>
       <c r="L45" t="n">
-        <v>119.3106382502219</v>
+        <v>119.3106382502222</v>
       </c>
       <c r="M45" t="n">
-        <v>220.1999092241154</v>
+        <v>220.1999092241158</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1250381905285</v>
+        <v>333.125038190529</v>
       </c>
       <c r="O45" t="n">
-        <v>421.9866026009618</v>
+        <v>421.9866026009624</v>
       </c>
       <c r="P45" t="n">
-        <v>480.7393491561081</v>
+        <v>480.7393491561089</v>
       </c>
       <c r="Q45" t="n">
-        <v>487.5665266324308</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="R45" t="n">
-        <v>487.5665266324308</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="S45" t="n">
-        <v>487.5665266324308</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="T45" t="n">
-        <v>487.5665266324308</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="U45" t="n">
-        <v>364.443666371716</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="V45" t="n">
-        <v>241.3208061110012</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="W45" t="n">
-        <v>118.1979458502864</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="X45" t="n">
-        <v>118.1979458502864</v>
+        <v>129.0365797048923</v>
       </c>
       <c r="Y45" t="n">
-        <v>118.1979458502864</v>
+        <v>129.0365797048923</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="C46" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="D46" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="E46" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="F46" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="G46" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="H46" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="I46" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="J46" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="K46" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="L46" t="n">
-        <v>17.57578586549603</v>
+        <v>17.57578586549614</v>
       </c>
       <c r="M46" t="n">
-        <v>27.94346090360948</v>
+        <v>27.94346090360967</v>
       </c>
       <c r="N46" t="n">
-        <v>43.17200764107591</v>
+        <v>43.17200764107618</v>
       </c>
       <c r="O46" t="n">
-        <v>44.03452756838808</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="P46" t="n">
-        <v>44.03452756838808</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="Q46" t="n">
-        <v>44.03452756838808</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="R46" t="n">
-        <v>44.03452756838808</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="S46" t="n">
-        <v>44.03452756838808</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="T46" t="n">
-        <v>44.03452756838808</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="U46" t="n">
-        <v>44.03452756838808</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="V46" t="n">
-        <v>44.03452756838808</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="W46" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="X46" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="Y46" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
     </row>
   </sheetData>
@@ -22570,13 +22570,13 @@
         <v>104.0803818793758</v>
       </c>
       <c r="J2" t="n">
-        <v>45.30876821055362</v>
+        <v>45.30876821055361</v>
       </c>
       <c r="K2" t="n">
-        <v>34.59292991576666</v>
+        <v>34.59292991576665</v>
       </c>
       <c r="L2" t="n">
-        <v>18.68715897392869</v>
+        <v>18.68715897392866</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -22585,16 +22585,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.895022563523526</v>
+        <v>5.895022563523497</v>
       </c>
       <c r="P2" t="n">
-        <v>27.6834376529322</v>
+        <v>27.68343765293218</v>
       </c>
       <c r="Q2" t="n">
-        <v>52.41767977011631</v>
+        <v>52.41767977011629</v>
       </c>
       <c r="R2" t="n">
-        <v>86.56775819371973</v>
+        <v>86.56775819371971</v>
       </c>
       <c r="S2" t="n">
         <v>145.4177268441001</v>
@@ -22646,13 +22646,13 @@
         <v>83.00822261809724</v>
       </c>
       <c r="I3" t="n">
-        <v>48.98163419533764</v>
+        <v>48.98163419533763</v>
       </c>
       <c r="J3" t="n">
-        <v>39.34074399253946</v>
+        <v>39.34074399253945</v>
       </c>
       <c r="K3" t="n">
-        <v>15.92582377546657</v>
+        <v>15.92582377546655</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -22673,7 +22673,7 @@
         <v>32.7508163066282</v>
       </c>
       <c r="R3" t="n">
-        <v>66.36540832016888</v>
+        <v>66.36540832016887</v>
       </c>
       <c r="S3" t="n">
         <v>125.1071014466145</v>
@@ -22728,25 +22728,25 @@
         <v>120.261031053682</v>
       </c>
       <c r="J4" t="n">
-        <v>55.50513938830232</v>
+        <v>55.50513938830231</v>
       </c>
       <c r="K4" t="n">
-        <v>39.42049456093674</v>
+        <v>39.42049456093673</v>
       </c>
       <c r="L4" t="n">
         <v>30.80954133327054</v>
       </c>
       <c r="M4" t="n">
-        <v>30.34506479299963</v>
+        <v>30.34506479299962</v>
       </c>
       <c r="N4" t="n">
-        <v>24.46454532135644</v>
+        <v>24.46454532135643</v>
       </c>
       <c r="O4" t="n">
         <v>35.9338438677494</v>
       </c>
       <c r="P4" t="n">
-        <v>43.26304678555946</v>
+        <v>43.26304678555945</v>
       </c>
       <c r="Q4" t="n">
         <v>66.45011700163332</v>
@@ -23269,16 +23269,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>317.2755153776613</v>
       </c>
       <c r="G11" t="n">
-        <v>407.6930376611896</v>
+        <v>312.2430589535289</v>
       </c>
       <c r="H11" t="n">
-        <v>211.6885239808069</v>
+        <v>223.06616144276</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.36701961397861</v>
       </c>
       <c r="J11" t="n">
         <v>4.111096708763668</v>
@@ -23305,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>56.07678504272411</v>
       </c>
       <c r="S11" t="n">
-        <v>38.90670818772689</v>
+        <v>134.3566868953876</v>
       </c>
       <c r="T11" t="n">
-        <v>177.3295908501412</v>
+        <v>119.958127439146</v>
       </c>
       <c r="U11" t="n">
         <v>253.0881550460924</v>
@@ -23345,13 +23345,13 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E12" t="n">
-        <v>50.86335441387209</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F12" t="n">
-        <v>27.7375093480388</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G12" t="n">
-        <v>22.69329961553404</v>
+        <v>118.1432783231948</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -23393,13 +23393,13 @@
         <v>172.3282273226375</v>
       </c>
       <c r="U12" t="n">
-        <v>207.9154104785617</v>
+        <v>112.465431770901</v>
       </c>
       <c r="V12" t="n">
-        <v>220.3146016126436</v>
+        <v>136.0959300462946</v>
       </c>
       <c r="W12" t="n">
-        <v>227.816073408046</v>
+        <v>132.3660947003853</v>
       </c>
       <c r="X12" t="n">
         <v>187.4140068734885</v>
@@ -23463,7 +23463,7 @@
         <v>48.21790694025855</v>
       </c>
       <c r="R13" t="n">
-        <v>81.75471146053108</v>
+        <v>95.67384984482831</v>
       </c>
       <c r="S13" t="n">
         <v>190.3277037114555</v>
@@ -23475,7 +23475,7 @@
         <v>282.5516645000867</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>249.4004133430868</v>
       </c>
       <c r="W13" t="n">
         <v>280.4970980481341</v>
@@ -23503,22 +23503,22 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>303.1077109269602</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>317.2755153776612</v>
       </c>
       <c r="G14" t="n">
-        <v>312.243058953529</v>
+        <v>312.2430589535289</v>
       </c>
       <c r="H14" t="n">
-        <v>211.688523980807</v>
+        <v>307.1385026884676</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.36701961397861</v>
       </c>
       <c r="J14" t="n">
-        <v>4.111096708763711</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>56.07678504272414</v>
+        <v>56.07678504272411</v>
       </c>
       <c r="S14" t="n">
         <v>134.3566868953876</v>
@@ -23557,13 +23557,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>287.3278001444515</v>
       </c>
       <c r="X14" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>298.3705016492155</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -23579,25 +23579,25 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D15" t="n">
-        <v>69.80552237831253</v>
+        <v>44.71573645902693</v>
       </c>
       <c r="E15" t="n">
-        <v>135.0820259802211</v>
+        <v>39.63204727256041</v>
       </c>
       <c r="F15" t="n">
-        <v>27.73750934803893</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G15" t="n">
-        <v>22.69329961553417</v>
+        <v>22.69329961553403</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>80.49995530864157</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>40.03980931830452</v>
       </c>
       <c r="J15" t="n">
-        <v>14.80369307837766</v>
+        <v>14.80369307837763</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,10 +23621,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>50.24050730624776</v>
+        <v>50.24050730624775</v>
       </c>
       <c r="S15" t="n">
-        <v>120.2830723569031</v>
+        <v>24.83309364924231</v>
       </c>
       <c r="T15" t="n">
         <v>172.3282273226375</v>
@@ -23676,10 +23676,10 @@
         <v>113.7131914181346</v>
       </c>
       <c r="J16" t="n">
-        <v>40.11138217982207</v>
+        <v>40.11138217982206</v>
       </c>
       <c r="K16" t="n">
-        <v>14.12382269204417</v>
+        <v>14.12382269204416</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23691,19 +23691,19 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>5.158205822558344</v>
+        <v>5.158205822558315</v>
       </c>
       <c r="P16" t="n">
-        <v>16.92917178213641</v>
+        <v>16.92917178213638</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.21790694025857</v>
+        <v>48.21790694025855</v>
       </c>
       <c r="R16" t="n">
-        <v>95.67384984482833</v>
+        <v>95.67384984482831</v>
       </c>
       <c r="S16" t="n">
-        <v>176.4085653271584</v>
+        <v>190.3277037114555</v>
       </c>
       <c r="T16" t="n">
         <v>230.7972796463247</v>
@@ -23715,7 +23715,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>266.5779596638369</v>
       </c>
       <c r="X16" t="n">
         <v>231.7395189948467</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>274.5981665961752</v>
       </c>
       <c r="C17" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>259.6950858373913</v>
       </c>
       <c r="E17" t="n">
-        <v>276.6660579765135</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>290.8338624272146</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>285.7063085134694</v>
+        <v>300.2357910071156</v>
       </c>
       <c r="H17" t="n">
-        <v>280.5032100041888</v>
+        <v>306.1645855229701</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>81.70077364567959</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>50.10311736083159</v>
+        <v>50.10311736083153</v>
       </c>
       <c r="S17" t="n">
         <v>132.189652850835</v>
@@ -23800,7 +23800,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>270.6341703304972</v>
       </c>
     </row>
     <row r="18">
@@ -23810,31 +23810,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>150.2783710965517</v>
+        <v>28.3867394384441</v>
       </c>
       <c r="C18" t="n">
-        <v>149.1476881355087</v>
+        <v>27.25605647740107</v>
       </c>
       <c r="D18" t="n">
-        <v>6.896446046627076</v>
+        <v>6.896446046626835</v>
       </c>
       <c r="E18" t="n">
-        <v>13.19039432211376</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F18" t="n">
-        <v>1.295856397592132</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G18" t="n">
-        <v>118.0923966805213</v>
+        <v>118.0923966805212</v>
       </c>
       <c r="H18" t="n">
         <v>80.00854575966319</v>
       </c>
       <c r="I18" t="n">
-        <v>38.28796328765951</v>
+        <v>38.28796328765949</v>
       </c>
       <c r="J18" t="n">
-        <v>9.996493671228052</v>
+        <v>9.996493671227995</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>47.08138215850115</v>
+        <v>47.08138215850112</v>
       </c>
       <c r="S18" t="n">
-        <v>11.97581899629151</v>
+        <v>119.3379681607525</v>
       </c>
       <c r="T18" t="n">
         <v>172.1231385962474</v>
@@ -23876,7 +23876,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X18" t="n">
-        <v>187.4140068734885</v>
+        <v>80.05185770902727</v>
       </c>
       <c r="Y18" t="n">
         <v>177.5210747552478</v>
@@ -23904,19 +23904,19 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>165.9286346603149</v>
+        <v>131.9882695949328</v>
       </c>
       <c r="H19" t="n">
         <v>148.207989438968</v>
       </c>
       <c r="I19" t="n">
-        <v>112.4303652576384</v>
+        <v>112.4303652576383</v>
       </c>
       <c r="J19" t="n">
-        <v>37.09549975836527</v>
+        <v>37.09549975836524</v>
       </c>
       <c r="K19" t="n">
-        <v>9.167801431118633</v>
+        <v>9.167801431118576</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23931,13 +23931,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>11.76994589361109</v>
+        <v>11.76994589361105</v>
       </c>
       <c r="Q19" t="n">
-        <v>44.64592635853828</v>
+        <v>44.64592635853825</v>
       </c>
       <c r="R19" t="n">
-        <v>93.75581532553743</v>
+        <v>93.75581532553741</v>
       </c>
       <c r="S19" t="n">
         <v>189.5843005223167</v>
@@ -23949,7 +23949,7 @@
         <v>282.5493377295417</v>
       </c>
       <c r="V19" t="n">
-        <v>229.3791866620021</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
         <v>280.4970980481341</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>396.4897982542829</v>
+        <v>289.1276490898218</v>
       </c>
       <c r="C20" t="n">
         <v>389.2437464820987</v>
@@ -23977,19 +23977,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>276.6660579765133</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>290.8338624272144</v>
       </c>
       <c r="G20" t="n">
-        <v>350.3389083679472</v>
+        <v>285.7063085134692</v>
       </c>
       <c r="H20" t="n">
         <v>306.1645855229701</v>
       </c>
       <c r="I20" t="n">
-        <v>81.70077364567962</v>
+        <v>81.70077364567959</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>50.10311736083153</v>
       </c>
       <c r="S20" t="n">
         <v>132.189652850835</v>
@@ -24031,13 +24031,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>245.3974130232878</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>263.6664473581661</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>270.6341703304973</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -24062,16 +24062,16 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G21" t="n">
-        <v>118.0923966805213</v>
+        <v>118.0923966805212</v>
       </c>
       <c r="H21" t="n">
         <v>80.00854575966319</v>
       </c>
       <c r="I21" t="n">
-        <v>38.28796328765951</v>
+        <v>38.28796328765949</v>
       </c>
       <c r="J21" t="n">
-        <v>9.996493671228052</v>
+        <v>9.996493671227995</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>47.08138215850115</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>11.9758189962914</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>50.23150693813979</v>
+        <v>109.2887080929324</v>
       </c>
       <c r="U21" t="n">
-        <v>86.02043134396247</v>
+        <v>207.9120630020701</v>
       </c>
       <c r="V21" t="n">
-        <v>98.42296995453604</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W21" t="n">
-        <v>227.816073408046</v>
+        <v>105.9244417499384</v>
       </c>
       <c r="X21" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y21" t="n">
-        <v>177.5210747552478</v>
+        <v>55.62944309714024</v>
       </c>
     </row>
     <row r="22">
@@ -24147,13 +24147,13 @@
         <v>148.207989438968</v>
       </c>
       <c r="I22" t="n">
-        <v>112.4303652576384</v>
+        <v>112.4303652576383</v>
       </c>
       <c r="J22" t="n">
-        <v>37.09549975836527</v>
+        <v>37.09549975836524</v>
       </c>
       <c r="K22" t="n">
-        <v>9.167801431118633</v>
+        <v>9.167801431118576</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24168,19 +24168,19 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>11.76994589361109</v>
+        <v>11.76994589361105</v>
       </c>
       <c r="Q22" t="n">
-        <v>44.64592635853828</v>
+        <v>44.64592635853825</v>
       </c>
       <c r="R22" t="n">
-        <v>93.75581532553743</v>
+        <v>93.75581532553741</v>
       </c>
       <c r="S22" t="n">
         <v>189.5843005223167</v>
       </c>
       <c r="T22" t="n">
-        <v>196.6746508882484</v>
+        <v>196.6746508882482</v>
       </c>
       <c r="U22" t="n">
         <v>282.5493377295417</v>
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>289.1276490898217</v>
+        <v>274.5981665961752</v>
       </c>
       <c r="C23" t="n">
-        <v>267.352114823991</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>259.6950858373913</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>276.6660579765132</v>
+        <v>291.1955404701597</v>
       </c>
       <c r="F23" t="n">
         <v>412.725494085322</v>
@@ -24253,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>50.10311736083153</v>
+        <v>50.10311736083155</v>
       </c>
       <c r="S23" t="n">
         <v>132.189652850835</v>
       </c>
       <c r="T23" t="n">
-        <v>214.9918168860265</v>
+        <v>93.10018522791886</v>
       </c>
       <c r="U23" t="n">
-        <v>253.0805472469234</v>
+        <v>131.1889155888157</v>
       </c>
       <c r="V23" t="n">
         <v>338.6857412035168</v>
@@ -24296,19 +24296,19 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F24" t="n">
-        <v>123.1874880556995</v>
+        <v>60.35305755238431</v>
       </c>
       <c r="G24" t="n">
         <v>118.0923966805212</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>80.00854575966319</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>38.28796328765949</v>
       </c>
       <c r="J24" t="n">
-        <v>9.996493671227995</v>
+        <v>9.996493671228009</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24332,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>47.08138215850112</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>119.3379681607525</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>172.1231385962474</v>
@@ -24347,13 +24347,13 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W24" t="n">
-        <v>116.8588016327998</v>
+        <v>105.9244417499383</v>
       </c>
       <c r="X24" t="n">
-        <v>65.52237521538078</v>
+        <v>65.52237521538079</v>
       </c>
       <c r="Y24" t="n">
-        <v>55.62944309714015</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="25">
@@ -24369,7 +24369,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>154.0767819665104</v>
+        <v>120.1364169011283</v>
       </c>
       <c r="E25" t="n">
         <v>154.0032240193895</v>
@@ -24387,10 +24387,10 @@
         <v>112.4303652576383</v>
       </c>
       <c r="J25" t="n">
-        <v>37.09549975836524</v>
+        <v>37.09549975836525</v>
       </c>
       <c r="K25" t="n">
-        <v>9.167801431118576</v>
+        <v>9.16780143111859</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -24405,7 +24405,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>11.76994589361105</v>
+        <v>11.76994589361107</v>
       </c>
       <c r="Q25" t="n">
         <v>44.64592635853825</v>
@@ -24429,7 +24429,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>197.7991539294646</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
         <v>220.8809405715231</v>
@@ -24445,7 +24445,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>267.3521148239911</v>
       </c>
       <c r="D26" t="n">
         <v>381.5867174954989</v>
@@ -24457,10 +24457,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>300.2357910071156</v>
+        <v>407.5979401715768</v>
       </c>
       <c r="H26" t="n">
-        <v>306.1645855229701</v>
+        <v>248.9055537193404</v>
       </c>
       <c r="I26" t="n">
         <v>81.70077364567959</v>
@@ -24490,13 +24490,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>50.10311736083153</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.189652850835</v>
+        <v>10.29802119272743</v>
       </c>
       <c r="T26" t="n">
-        <v>93.1001852279188</v>
+        <v>93.10018522791894</v>
       </c>
       <c r="U26" t="n">
         <v>253.0805472469234</v>
@@ -24505,10 +24505,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>245.3974130232877</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>263.666447358166</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
         <v>392.5258019886049</v>
@@ -24527,16 +24527,16 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D27" t="n">
-        <v>128.7880777047345</v>
+        <v>6.896446046626878</v>
       </c>
       <c r="E27" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F27" t="n">
-        <v>13.27167539388313</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G27" t="n">
-        <v>118.0923966805212</v>
+        <v>55.25796617720618</v>
       </c>
       <c r="H27" t="n">
         <v>80.00854575966319</v>
@@ -24545,7 +24545,7 @@
         <v>38.28796328765949</v>
       </c>
       <c r="J27" t="n">
-        <v>9.996493671227995</v>
+        <v>9.996493671228009</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24569,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>47.08138215850112</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>50.23150693813966</v>
+        <v>50.23150693813979</v>
       </c>
       <c r="U27" t="n">
-        <v>86.02043134396236</v>
+        <v>207.9120630020701</v>
       </c>
       <c r="V27" t="n">
         <v>220.3146016126436</v>
@@ -24624,10 +24624,10 @@
         <v>112.4303652576383</v>
       </c>
       <c r="J28" t="n">
-        <v>37.09549975836524</v>
+        <v>37.09549975836525</v>
       </c>
       <c r="K28" t="n">
-        <v>9.167801431118576</v>
+        <v>9.16780143111859</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -24642,7 +24642,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>11.76994589361105</v>
+        <v>11.76994589361107</v>
       </c>
       <c r="Q28" t="n">
         <v>44.64592635853825</v>
@@ -24654,7 +24654,7 @@
         <v>189.5843005223167</v>
       </c>
       <c r="T28" t="n">
-        <v>230.6150159536303</v>
+        <v>196.6746508882482</v>
       </c>
       <c r="U28" t="n">
         <v>282.5493377295417</v>
@@ -24669,7 +24669,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>186.9405755061409</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -24688,19 +24688,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>276.6660579765132</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>290.8338624272143</v>
+        <v>290.8338624272144</v>
       </c>
       <c r="G29" t="n">
-        <v>310.1480503555189</v>
+        <v>407.5979401715768</v>
       </c>
       <c r="H29" t="n">
         <v>306.1645855229701</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>81.70077364567959</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,25 +24727,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>50.10311736083155</v>
       </c>
       <c r="S29" t="n">
         <v>132.189652850835</v>
       </c>
       <c r="T29" t="n">
-        <v>214.9918168860265</v>
+        <v>93.1001852279189</v>
       </c>
       <c r="U29" t="n">
         <v>253.0805472469234</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>216.7941095454092</v>
       </c>
       <c r="W29" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>278.1959298518126</v>
       </c>
       <c r="Y29" t="n">
         <v>392.5258019886049</v>
@@ -24767,10 +24767,10 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E30" t="n">
-        <v>135.0820259802211</v>
+        <v>13.19039432211352</v>
       </c>
       <c r="F30" t="n">
-        <v>123.1874880556995</v>
+        <v>15.82533889123836</v>
       </c>
       <c r="G30" t="n">
         <v>118.0923966805212</v>
@@ -24809,19 +24809,19 @@
         <v>47.08138215850113</v>
       </c>
       <c r="S30" t="n">
-        <v>11.97581899629128</v>
+        <v>119.3379681607525</v>
       </c>
       <c r="T30" t="n">
-        <v>50.23150693813966</v>
+        <v>172.1231385962474</v>
       </c>
       <c r="U30" t="n">
-        <v>86.02043134396234</v>
+        <v>207.9120630020701</v>
       </c>
       <c r="V30" t="n">
-        <v>98.42296995453592</v>
+        <v>98.422969954536</v>
       </c>
       <c r="W30" t="n">
-        <v>227.816073408046</v>
+        <v>105.9244417499384</v>
       </c>
       <c r="X30" t="n">
         <v>187.4140068734885</v>
@@ -24882,7 +24882,7 @@
         <v>11.76994589361107</v>
       </c>
       <c r="Q31" t="n">
-        <v>10.70556129315619</v>
+        <v>44.64592635853825</v>
       </c>
       <c r="R31" t="n">
         <v>93.75581532553741</v>
@@ -24903,7 +24903,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>197.7991539294646</v>
       </c>
       <c r="Y31" t="n">
         <v>220.8809405715231</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>396.4897982542829</v>
+        <v>274.5981665961754</v>
       </c>
       <c r="C32" t="n">
         <v>389.2437464820987</v>
@@ -24967,22 +24967,22 @@
         <v>50.10311736083155</v>
       </c>
       <c r="S32" t="n">
-        <v>10.29802119272742</v>
+        <v>132.189652850835</v>
       </c>
       <c r="T32" t="n">
-        <v>107.6296677215654</v>
+        <v>93.10018522791896</v>
       </c>
       <c r="U32" t="n">
-        <v>131.1889155888158</v>
+        <v>145.7183980824623</v>
       </c>
       <c r="V32" t="n">
-        <v>216.7941095454092</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>263.6664473581661</v>
       </c>
       <c r="Y32" t="n">
         <v>392.5258019886049</v>
@@ -24998,19 +24998,19 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C33" t="n">
-        <v>27.2560564774011</v>
+        <v>27.25605647740113</v>
       </c>
       <c r="D33" t="n">
-        <v>6.896446046626863</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E33" t="n">
-        <v>13.19039432211355</v>
+        <v>13.19039432211358</v>
       </c>
       <c r="F33" t="n">
-        <v>123.1874880556995</v>
+        <v>1.295856397591947</v>
       </c>
       <c r="G33" t="n">
-        <v>118.0923966805212</v>
+        <v>10.73024751606015</v>
       </c>
       <c r="H33" t="n">
         <v>80.00854575966319</v>
@@ -25046,7 +25046,7 @@
         <v>47.08138215850113</v>
       </c>
       <c r="S33" t="n">
-        <v>11.97581899629139</v>
+        <v>119.3379681607525</v>
       </c>
       <c r="T33" t="n">
         <v>172.1231385962474</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>149.4155734390062</v>
       </c>
       <c r="C34" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>120.1364169011283</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
         <v>154.0032240193895</v>
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>289.1276490898217</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>259.6950858373913</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>276.6660579765132</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
         <v>412.725494085322</v>
@@ -25174,7 +25174,7 @@
         <v>306.1645855229701</v>
       </c>
       <c r="I35" t="n">
-        <v>81.70077364567959</v>
+        <v>24.44174184204996</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,10 +25201,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>50.10311736083155</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.189652850835</v>
+        <v>10.29802119272739</v>
       </c>
       <c r="T35" t="n">
         <v>214.9918168860265</v>
@@ -25213,16 +25213,16 @@
         <v>253.0805472469234</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>216.7941095454092</v>
       </c>
       <c r="W35" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>263.6664473581661</v>
       </c>
       <c r="Y35" t="n">
-        <v>270.6341703304972</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -25241,7 +25241,7 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E36" t="n">
-        <v>135.0820259802211</v>
+        <v>13.19039432211352</v>
       </c>
       <c r="F36" t="n">
         <v>123.1874880556995</v>
@@ -25283,19 +25283,19 @@
         <v>47.08138215850113</v>
       </c>
       <c r="S36" t="n">
-        <v>11.97581899629122</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>50.2315069381397</v>
+        <v>50.23150693813974</v>
       </c>
       <c r="U36" t="n">
-        <v>86.0204313439624</v>
+        <v>97.99625034025348</v>
       </c>
       <c r="V36" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W36" t="n">
-        <v>105.9244417499383</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X36" t="n">
         <v>187.4140068734885</v>
@@ -25314,7 +25314,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
-        <v>134.5627016892886</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
         <v>154.0767819665104</v>
@@ -25368,7 +25368,7 @@
         <v>230.6150159536303</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5493377295417</v>
+        <v>248.6089726641596</v>
       </c>
       <c r="V37" t="n">
         <v>263.319551727384</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>274.5981665961752</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
         <v>389.2437464820987</v>
@@ -25399,7 +25399,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>276.6660579765133</v>
       </c>
       <c r="F38" t="n">
         <v>412.725494085322</v>
@@ -25411,7 +25411,7 @@
         <v>306.1645855229701</v>
       </c>
       <c r="I38" t="n">
-        <v>81.70077364567959</v>
+        <v>24.44174184204997</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>74.93062104720531</v>
+        <v>132.189652850835</v>
       </c>
       <c r="T38" t="n">
         <v>214.9918168860265</v>
@@ -25450,16 +25450,16 @@
         <v>253.0805472469234</v>
       </c>
       <c r="V38" t="n">
-        <v>216.7941095454091</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>245.3974130232878</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>263.6664473581661</v>
       </c>
       <c r="Y38" t="n">
-        <v>270.6341703304972</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -25469,10 +25469,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>119.1255327141673</v>
+        <v>39.11698695450377</v>
       </c>
       <c r="C39" t="n">
-        <v>27.25605647740097</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D39" t="n">
         <v>128.7880777047345</v>
@@ -25481,13 +25481,13 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F39" t="n">
-        <v>123.1874880556995</v>
+        <v>1.295856397591933</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>80.00854575966319</v>
       </c>
       <c r="I39" t="n">
         <v>38.28796328765949</v>
@@ -25523,7 +25523,7 @@
         <v>119.3379681607525</v>
       </c>
       <c r="T39" t="n">
-        <v>50.23150693813965</v>
+        <v>172.1231385962474</v>
       </c>
       <c r="U39" t="n">
         <v>207.9120630020701</v>
@@ -25535,7 +25535,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X39" t="n">
-        <v>187.4140068734885</v>
+        <v>65.52237521538088</v>
       </c>
       <c r="Y39" t="n">
         <v>177.5210747552478</v>
@@ -25554,7 +25554,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>120.1364169011283</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
         <v>154.0032240193895</v>
@@ -25602,7 +25602,7 @@
         <v>189.5843005223167</v>
       </c>
       <c r="T40" t="n">
-        <v>230.6150159536303</v>
+        <v>196.6746508882482</v>
       </c>
       <c r="U40" t="n">
         <v>282.5493377295417</v>
@@ -25630,10 +25630,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>267.3521148239911</v>
+        <v>331.984714678469</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>259.6950858373913</v>
       </c>
       <c r="E41" t="n">
         <v>398.5576896346209</v>
@@ -25642,10 +25642,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>407.5979401715768</v>
+        <v>285.7063085134691</v>
       </c>
       <c r="H41" t="n">
-        <v>184.2729538648625</v>
+        <v>306.1645855229701</v>
       </c>
       <c r="I41" t="n">
         <v>81.70077364567959</v>
@@ -25675,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>50.10311736083155</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.189652850835</v>
+        <v>10.29802119272735</v>
       </c>
       <c r="T41" t="n">
-        <v>93.1001852279189</v>
+        <v>214.9918168860265</v>
       </c>
       <c r="U41" t="n">
-        <v>145.7183980824622</v>
+        <v>253.0805472469234</v>
       </c>
       <c r="V41" t="n">
         <v>338.6857412035168</v>
@@ -25709,7 +25709,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C42" t="n">
-        <v>27.25605647740109</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D42" t="n">
         <v>128.7880777047345</v>
@@ -25718,10 +25718,10 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F42" t="n">
-        <v>123.1874880556995</v>
+        <v>1.295856397591848</v>
       </c>
       <c r="G42" t="n">
-        <v>118.0923966805212</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>80.00854575966319</v>
@@ -25760,13 +25760,13 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>172.1231385962474</v>
+        <v>58.40809095684457</v>
       </c>
       <c r="U42" t="n">
-        <v>97.99625034025345</v>
+        <v>207.9120630020701</v>
       </c>
       <c r="V42" t="n">
-        <v>98.42296995453601</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W42" t="n">
         <v>227.816073408046</v>
@@ -25803,7 +25803,7 @@
         <v>165.9286346603149</v>
       </c>
       <c r="H43" t="n">
-        <v>114.2676243735859</v>
+        <v>148.207989438968</v>
       </c>
       <c r="I43" t="n">
         <v>112.4303652576383</v>
@@ -25839,7 +25839,7 @@
         <v>189.5843005223167</v>
       </c>
       <c r="T43" t="n">
-        <v>230.6150159536303</v>
+        <v>196.6746508882482</v>
       </c>
       <c r="U43" t="n">
         <v>282.5493377295417</v>
@@ -25867,16 +25867,16 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>331.9847146784688</v>
       </c>
       <c r="D44" t="n">
-        <v>259.6950858373913</v>
+        <v>259.695085837391</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>276.666057976513</v>
       </c>
       <c r="F44" t="n">
-        <v>290.8338624272144</v>
+        <v>290.8338624272141</v>
       </c>
       <c r="G44" t="n">
         <v>407.5979401715768</v>
@@ -25885,7 +25885,7 @@
         <v>306.1645855229701</v>
       </c>
       <c r="I44" t="n">
-        <v>81.70077364567959</v>
+        <v>81.70077364567955</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25924,13 +25924,13 @@
         <v>253.0805472469234</v>
       </c>
       <c r="V44" t="n">
-        <v>281.4267093998872</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>263.6664473581661</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
         <v>392.5258019886049</v>
@@ -25943,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>81.20418521974976</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C45" t="n">
         <v>149.1476881355087</v>
@@ -25958,16 +25958,16 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
-        <v>118.0923966805212</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>80.00854575966319</v>
+        <v>80.00854575966318</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>38.28796328765948</v>
       </c>
       <c r="J45" t="n">
-        <v>9.996493671228009</v>
+        <v>9.996493671227952</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>47.08138215850113</v>
+        <v>47.08138215850109</v>
       </c>
       <c r="S45" t="n">
         <v>119.3379681607525</v>
@@ -26000,16 +26000,16 @@
         <v>172.1231385962474</v>
       </c>
       <c r="U45" t="n">
-        <v>86.02043134396246</v>
+        <v>207.9120630020701</v>
       </c>
       <c r="V45" t="n">
-        <v>98.42296995453601</v>
+        <v>98.42296995453573</v>
       </c>
       <c r="W45" t="n">
-        <v>105.9244417499384</v>
+        <v>105.9244417499381</v>
       </c>
       <c r="X45" t="n">
-        <v>187.4140068734885</v>
+        <v>76.25262273144043</v>
       </c>
       <c r="Y45" t="n">
         <v>177.5210747552478</v>
@@ -26046,10 +26046,10 @@
         <v>112.4303652576383</v>
       </c>
       <c r="J46" t="n">
-        <v>37.09549975836525</v>
+        <v>37.09549975836521</v>
       </c>
       <c r="K46" t="n">
-        <v>9.16780143111859</v>
+        <v>9.167801431118534</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26064,13 +26064,13 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>11.76994589361107</v>
+        <v>11.76994589361099</v>
       </c>
       <c r="Q46" t="n">
-        <v>44.64592635853825</v>
+        <v>44.64592635853821</v>
       </c>
       <c r="R46" t="n">
-        <v>93.75581532553741</v>
+        <v>93.75581532553738</v>
       </c>
       <c r="S46" t="n">
         <v>189.5843005223167</v>
@@ -26079,13 +26079,13 @@
         <v>230.6150159536303</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5493377295417</v>
+        <v>248.6089726641593</v>
       </c>
       <c r="V46" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>246.5567329827521</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
         <v>231.7395189948467</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>276551.3725404202</v>
+        <v>276551.3725404204</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>297868.3646357146</v>
+        <v>297868.3646357148</v>
       </c>
     </row>
     <row r="8">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>297868.3646357148</v>
+        <v>297868.3646357149</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>297868.3646357149</v>
+        <v>297868.3646357148</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>297868.3646357148</v>
+        <v>297868.3646357149</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>47213.27763988464</v>
+        <v>47213.27763988465</v>
       </c>
       <c r="C2" t="n">
-        <v>47213.27763988464</v>
+        <v>47213.27763988465</v>
       </c>
       <c r="D2" t="n">
         <v>47213.27763988465</v>
@@ -26325,37 +26325,37 @@
         <v>75423.10160193284</v>
       </c>
       <c r="F2" t="n">
-        <v>75423.10160193279</v>
+        <v>75423.10160193281</v>
       </c>
       <c r="G2" t="n">
-        <v>81236.8267188312</v>
+        <v>81236.82671883127</v>
       </c>
       <c r="H2" t="n">
-        <v>81236.82671883132</v>
+        <v>81236.8267188313</v>
       </c>
       <c r="I2" t="n">
         <v>81236.82671883129</v>
       </c>
       <c r="J2" t="n">
-        <v>81236.82671883135</v>
+        <v>81236.82671883129</v>
       </c>
       <c r="K2" t="n">
         <v>81236.82671883129</v>
       </c>
       <c r="L2" t="n">
-        <v>81236.82671883133</v>
+        <v>81236.82671883126</v>
       </c>
       <c r="M2" t="n">
+        <v>81236.8267188313</v>
+      </c>
+      <c r="N2" t="n">
         <v>81236.82671883129</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>81236.82671883126</v>
+      </c>
+      <c r="P2" t="n">
         <v>81236.82671883136</v>
-      </c>
-      <c r="O2" t="n">
-        <v>81236.82671883133</v>
-      </c>
-      <c r="P2" t="n">
-        <v>81236.82671883133</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>204388.9161824899</v>
+        <v>204388.91618249</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,13 +26380,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>25639.10459819446</v>
+        <v>25639.10459819457</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26404,10 +26404,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>6363.210224177945</v>
+        <v>6363.210224178017</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.891680767585058e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26429,25 +26429,25 @@
         <v>69.67489617417093</v>
       </c>
       <c r="F4" t="n">
-        <v>69.67489617417084</v>
+        <v>69.67489617417093</v>
       </c>
       <c r="G4" t="n">
-        <v>89.57007674701671</v>
+        <v>89.57007674701688</v>
       </c>
       <c r="H4" t="n">
-        <v>89.57007674701674</v>
+        <v>89.57007674701688</v>
       </c>
       <c r="I4" t="n">
-        <v>89.57007674701691</v>
+        <v>89.57007674701686</v>
       </c>
       <c r="J4" t="n">
-        <v>89.57007674701691</v>
+        <v>89.57007674701684</v>
       </c>
       <c r="K4" t="n">
         <v>89.57007674701687</v>
       </c>
       <c r="L4" t="n">
-        <v>89.57007674701684</v>
+        <v>89.57007674701687</v>
       </c>
       <c r="M4" t="n">
         <v>89.57007674701687</v>
@@ -26459,7 +26459,7 @@
         <v>89.57007674701687</v>
       </c>
       <c r="P4" t="n">
-        <v>89.57007674701687</v>
+        <v>89.57007674701711</v>
       </c>
     </row>
     <row r="5">
@@ -26481,10 +26481,10 @@
         <v>13059.48785636359</v>
       </c>
       <c r="F5" t="n">
-        <v>13059.48785636358</v>
+        <v>13059.48785636359</v>
       </c>
       <c r="G5" t="n">
-        <v>15182.83026754878</v>
+        <v>15182.8302675488</v>
       </c>
       <c r="H5" t="n">
         <v>15182.83026754879</v>
@@ -26493,25 +26493,25 @@
         <v>15182.8302675488</v>
       </c>
       <c r="J5" t="n">
-        <v>15182.8302675488</v>
+        <v>15182.83026754879</v>
       </c>
       <c r="K5" t="n">
-        <v>15182.8302675488</v>
+        <v>15182.83026754879</v>
       </c>
       <c r="L5" t="n">
         <v>15182.83026754879</v>
       </c>
       <c r="M5" t="n">
+        <v>15182.83026754879</v>
+      </c>
+      <c r="N5" t="n">
+        <v>15182.83026754879</v>
+      </c>
+      <c r="O5" t="n">
         <v>15182.8302675488</v>
       </c>
-      <c r="N5" t="n">
-        <v>15182.8302675488</v>
-      </c>
-      <c r="O5" t="n">
-        <v>15182.83026754879</v>
-      </c>
       <c r="P5" t="n">
-        <v>15182.83026754879</v>
+        <v>15182.83026754882</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-195427.1678303778</v>
+        <v>-196915.7344270454</v>
       </c>
       <c r="C6" t="n">
-        <v>8961.748352112183</v>
+        <v>7473.181755444521</v>
       </c>
       <c r="D6" t="n">
-        <v>8961.74835211219</v>
+        <v>7473.181755444528</v>
       </c>
       <c r="E6" t="n">
-        <v>-63210.70409807275</v>
+        <v>-64511.2052016601</v>
       </c>
       <c r="F6" t="n">
-        <v>62293.93884939504</v>
+        <v>60993.4377458077</v>
       </c>
       <c r="G6" t="n">
-        <v>40325.32177634095</v>
+        <v>39063.57884019953</v>
       </c>
       <c r="H6" t="n">
-        <v>65964.42637453551</v>
+        <v>64702.68343839414</v>
       </c>
       <c r="I6" t="n">
-        <v>65964.42637453531</v>
+        <v>64702.68343839412</v>
       </c>
       <c r="J6" t="n">
-        <v>65964.42637453554</v>
+        <v>64702.68343839412</v>
       </c>
       <c r="K6" t="n">
-        <v>65964.42637453548</v>
+        <v>64702.68343839412</v>
       </c>
       <c r="L6" t="n">
-        <v>65964.42637453553</v>
+        <v>64702.68343839409</v>
       </c>
       <c r="M6" t="n">
-        <v>42177.90988067158</v>
+        <v>40916.16694453024</v>
       </c>
       <c r="N6" t="n">
-        <v>65964.42637453554</v>
+        <v>64702.68343839412</v>
       </c>
       <c r="O6" t="n">
-        <v>59601.21615035758</v>
+        <v>58339.47321421607</v>
       </c>
       <c r="P6" t="n">
-        <v>65964.42637453553</v>
+        <v>64702.68343839398</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>212.1068480629567</v>
+        <v>212.1068480629568</v>
       </c>
       <c r="C3" t="n">
         <v>212.1068480629568</v>
@@ -26749,13 +26749,13 @@
         <v>332.8499610521937</v>
       </c>
       <c r="F3" t="n">
-        <v>332.8499610521936</v>
+        <v>332.8499610521937</v>
       </c>
       <c r="G3" t="n">
-        <v>356.5054615933875</v>
+        <v>356.5054615933877</v>
       </c>
       <c r="H3" t="n">
-        <v>356.5054615933875</v>
+        <v>356.5054615933877</v>
       </c>
       <c r="I3" t="n">
         <v>356.5054615933877</v>
@@ -26779,7 +26779,7 @@
         <v>356.5054615933877</v>
       </c>
       <c r="P3" t="n">
-        <v>356.5054615933877</v>
+        <v>356.505461593388</v>
       </c>
     </row>
     <row r="4">
@@ -26801,10 +26801,10 @@
         <v>95.44997870766072</v>
       </c>
       <c r="F4" t="n">
-        <v>95.44997870766059</v>
+        <v>95.44997870766073</v>
       </c>
       <c r="G4" t="n">
-        <v>121.8916316581074</v>
+        <v>121.8916316581076</v>
       </c>
       <c r="H4" t="n">
         <v>121.8916316581076</v>
@@ -26813,25 +26813,25 @@
         <v>121.8916316581077</v>
       </c>
       <c r="J4" t="n">
-        <v>121.8916316581077</v>
+        <v>121.8916316581076</v>
       </c>
       <c r="K4" t="n">
-        <v>121.8916316581077</v>
+        <v>121.8916316581076</v>
       </c>
       <c r="L4" t="n">
         <v>121.8916316581076</v>
       </c>
       <c r="M4" t="n">
+        <v>121.8916316581076</v>
+      </c>
+      <c r="N4" t="n">
+        <v>121.8916316581076</v>
+      </c>
+      <c r="O4" t="n">
         <v>121.8916316581077</v>
       </c>
-      <c r="N4" t="n">
-        <v>121.8916316581077</v>
-      </c>
-      <c r="O4" t="n">
-        <v>121.8916316581076</v>
-      </c>
       <c r="P4" t="n">
-        <v>121.8916316581076</v>
+        <v>121.8916316581079</v>
       </c>
     </row>
   </sheetData>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>212.1068480629567</v>
+        <v>212.1068480629568</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26974,13 +26974,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>23.65550054119393</v>
+        <v>23.65550054119404</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>26.44165295044679</v>
+        <v>26.44165295044689</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>95.44997870766079</v>
+        <v>95.44997870766078</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>26.44165295044668</v>
+        <v>26.44165295044698</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>26.44165295044679</v>
+        <v>26.44165295044689</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8526908464842475</v>
+        <v>0.8526908464842476</v>
       </c>
       <c r="H2" t="n">
         <v>8.732620131556803</v>
@@ -31050,7 +31050,7 @@
         <v>32.87336385908399</v>
       </c>
       <c r="J2" t="n">
-        <v>72.37106973179247</v>
+        <v>72.37106973179249</v>
       </c>
       <c r="K2" t="n">
         <v>108.4654732634707</v>
@@ -31071,10 +31071,10 @@
         <v>122.618009587993</v>
       </c>
       <c r="Q2" t="n">
-        <v>92.08101864827586</v>
+        <v>92.08101864827587</v>
       </c>
       <c r="R2" t="n">
-        <v>53.56284138546616</v>
+        <v>53.56284138546617</v>
       </c>
       <c r="S2" t="n">
         <v>19.43069266425981</v>
@@ -31083,7 +31083,7 @@
         <v>3.732654180484796</v>
       </c>
       <c r="U2" t="n">
-        <v>0.06821526771873979</v>
+        <v>0.0682152677187398</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,19 +31120,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4562298241354164</v>
+        <v>0.4562298241354165</v>
       </c>
       <c r="H3" t="n">
-        <v>4.406219617307838</v>
+        <v>4.406219617307839</v>
       </c>
       <c r="I3" t="n">
         <v>15.70791280466237</v>
       </c>
       <c r="J3" t="n">
-        <v>43.10371334079389</v>
+        <v>43.1037133407939</v>
       </c>
       <c r="K3" t="n">
-        <v>73.67111155786678</v>
+        <v>73.67111155786679</v>
       </c>
       <c r="L3" t="n">
         <v>90.06034685691823</v>
@@ -31150,7 +31150,7 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>58.23733684928579</v>
+        <v>58.2373368492858</v>
       </c>
       <c r="R3" t="n">
         <v>28.32626925640771</v>
@@ -31159,7 +31159,7 @@
         <v>8.474268882515295</v>
       </c>
       <c r="T3" t="n">
-        <v>1.838926352545822</v>
+        <v>1.838926352545823</v>
       </c>
       <c r="U3" t="n">
         <v>0.03001512000890899</v>
@@ -31199,34 +31199,34 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3824877588020531</v>
+        <v>0.3824877588020532</v>
       </c>
       <c r="H4" t="n">
-        <v>3.40066389189462</v>
+        <v>3.400663891894621</v>
       </c>
       <c r="I4" t="n">
         <v>11.50245005561084</v>
       </c>
       <c r="J4" t="n">
-        <v>27.04188454730515</v>
+        <v>27.04188454730516</v>
       </c>
       <c r="K4" t="n">
-        <v>44.43812324991125</v>
+        <v>44.43812324991126</v>
       </c>
       <c r="L4" t="n">
-        <v>56.86549824953434</v>
+        <v>56.86549824953435</v>
       </c>
       <c r="M4" t="n">
-        <v>59.95669477294364</v>
+        <v>59.95669477294365</v>
       </c>
       <c r="N4" t="n">
-        <v>58.53105858104513</v>
+        <v>58.53105858104514</v>
       </c>
       <c r="O4" t="n">
-        <v>54.0629061259484</v>
+        <v>54.06290612594841</v>
       </c>
       <c r="P4" t="n">
-        <v>46.26015584638647</v>
+        <v>46.26015584638648</v>
       </c>
       <c r="Q4" t="n">
         <v>32.02813405750647</v>
@@ -31241,7 +31241,7 @@
         <v>1.634265878517863</v>
       </c>
       <c r="U4" t="n">
-        <v>0.02086296866193019</v>
+        <v>0.0208629686619302</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31852,16 +31852,16 @@
         <v>181.4032287734455</v>
       </c>
       <c r="N12" t="n">
-        <v>155.2131393140658</v>
+        <v>180.8220915618274</v>
       </c>
       <c r="O12" t="n">
         <v>170.3406777094184</v>
       </c>
       <c r="P12" t="n">
-        <v>136.7134113612303</v>
+        <v>111.5056009241872</v>
       </c>
       <c r="Q12" t="n">
-        <v>91.38929496663252</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>44.45117027032883</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.338090295687209</v>
+        <v>1.33809029568721</v>
       </c>
       <c r="H14" t="n">
         <v>13.70371724070664</v>
       </c>
       <c r="I14" t="n">
-        <v>51.58672612448119</v>
+        <v>51.5867261244812</v>
       </c>
       <c r="J14" t="n">
         <v>113.5687412335824</v>
@@ -32010,7 +32010,7 @@
         <v>234.9569476325869</v>
       </c>
       <c r="N14" t="n">
-        <v>238.7587966852082</v>
+        <v>238.7587966852083</v>
       </c>
       <c r="O14" t="n">
         <v>225.4531613074685</v>
@@ -32019,19 +32019,19 @@
         <v>192.4190571326905</v>
       </c>
       <c r="Q14" t="n">
-        <v>144.4986984183922</v>
+        <v>144.4986984183923</v>
       </c>
       <c r="R14" t="n">
-        <v>84.05381453646174</v>
+        <v>84.05381453646177</v>
       </c>
       <c r="S14" t="n">
-        <v>30.49173261297231</v>
+        <v>30.49173261297232</v>
       </c>
       <c r="T14" t="n">
-        <v>5.857490269370762</v>
+        <v>5.857490269370764</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1070472236549767</v>
+        <v>0.1070472236549768</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7159414256594353</v>
+        <v>0.7159414256594355</v>
       </c>
       <c r="H15" t="n">
-        <v>6.914486926763495</v>
+        <v>6.914486926763496</v>
       </c>
       <c r="I15" t="n">
-        <v>24.64973768169547</v>
+        <v>24.64973768169548</v>
       </c>
       <c r="J15" t="n">
-        <v>67.64076425495568</v>
+        <v>67.64076425495571</v>
       </c>
       <c r="K15" t="n">
-        <v>115.6088397741378</v>
+        <v>115.6088397741379</v>
       </c>
       <c r="L15" t="n">
         <v>155.450352093291</v>
@@ -32089,28 +32089,28 @@
         <v>181.4032287734455</v>
       </c>
       <c r="N15" t="n">
-        <v>180.8220915618272</v>
+        <v>180.8220915618274</v>
       </c>
       <c r="O15" t="n">
-        <v>144.7317254616566</v>
+        <v>170.3406777094184</v>
       </c>
       <c r="P15" t="n">
-        <v>136.7134113612302</v>
+        <v>111.5056009241873</v>
       </c>
       <c r="Q15" t="n">
-        <v>91.38929496663248</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
-        <v>44.45117027032882</v>
+        <v>44.45117027032883</v>
       </c>
       <c r="S15" t="n">
-        <v>13.29829797222678</v>
+        <v>13.29829797222679</v>
       </c>
       <c r="T15" t="n">
-        <v>2.885746360443073</v>
+        <v>2.885746360443075</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0471014095828576</v>
+        <v>0.04710140958285762</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6002212412416604</v>
+        <v>0.6002212412416607</v>
       </c>
       <c r="H16" t="n">
-        <v>5.336512490312222</v>
+        <v>5.336512490312224</v>
       </c>
       <c r="I16" t="n">
         <v>18.05028969115831</v>
       </c>
       <c r="J16" t="n">
-        <v>42.4356417557854</v>
+        <v>42.43564175578541</v>
       </c>
       <c r="K16" t="n">
-        <v>69.73479511880382</v>
+        <v>69.73479511880383</v>
       </c>
       <c r="L16" t="n">
-        <v>89.23652890241925</v>
+        <v>89.23652890241928</v>
       </c>
       <c r="M16" t="n">
-        <v>94.08740784299955</v>
+        <v>94.08740784299958</v>
       </c>
       <c r="N16" t="n">
-        <v>91.8502195801898</v>
+        <v>91.85021958018983</v>
       </c>
       <c r="O16" t="n">
-        <v>84.83854417113946</v>
+        <v>84.83854417113949</v>
       </c>
       <c r="P16" t="n">
-        <v>72.59403084980953</v>
+        <v>72.59403084980956</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.26034411888123</v>
+        <v>50.26034411888124</v>
       </c>
       <c r="R16" t="n">
-        <v>26.98812962892047</v>
+        <v>26.98812962892048</v>
       </c>
       <c r="S16" t="n">
         <v>10.46021926782057</v>
       </c>
       <c r="T16" t="n">
-        <v>2.564581667123458</v>
+        <v>2.564581667123459</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03273934043136334</v>
+        <v>0.03273934043136335</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.433187785300049</v>
+        <v>1.43318778530005</v>
       </c>
       <c r="H17" t="n">
-        <v>14.67763440620413</v>
+        <v>14.67763440620414</v>
       </c>
       <c r="I17" t="n">
-        <v>55.2529720927802</v>
+        <v>55.25297209278023</v>
       </c>
       <c r="J17" t="n">
         <v>121.6400217926102</v>
       </c>
       <c r="K17" t="n">
-        <v>182.3068607443613</v>
+        <v>182.3068607443614</v>
       </c>
       <c r="L17" t="n">
-        <v>226.1677814287377</v>
+        <v>226.1677814287378</v>
       </c>
       <c r="M17" t="n">
-        <v>251.6552347055674</v>
+        <v>251.6552347055676</v>
       </c>
       <c r="N17" t="n">
-        <v>255.7272795005512</v>
+        <v>255.7272795005514</v>
       </c>
       <c r="O17" t="n">
-        <v>241.4760184604739</v>
+        <v>241.476018460474</v>
       </c>
       <c r="P17" t="n">
-        <v>206.0941950108788</v>
+        <v>206.094195010879</v>
       </c>
       <c r="Q17" t="n">
-        <v>154.7681574498208</v>
+        <v>154.7681574498209</v>
       </c>
       <c r="R17" t="n">
-        <v>90.02748221835429</v>
+        <v>90.02748221835435</v>
       </c>
       <c r="S17" t="n">
-        <v>32.65876665752491</v>
+        <v>32.65876665752492</v>
       </c>
       <c r="T17" t="n">
-        <v>6.273779530150969</v>
+        <v>6.273779530150972</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1146550228240039</v>
+        <v>0.114655022824004</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7668230683329468</v>
+        <v>0.7668230683329472</v>
       </c>
       <c r="H18" t="n">
-        <v>7.405896475741882</v>
+        <v>7.405896475741886</v>
       </c>
       <c r="I18" t="n">
-        <v>26.40158371234049</v>
+        <v>26.40158371234051</v>
       </c>
       <c r="J18" t="n">
-        <v>72.44796366210529</v>
+        <v>72.44796366210535</v>
       </c>
       <c r="K18" t="n">
-        <v>123.825109240412</v>
+        <v>123.8251092404128</v>
       </c>
       <c r="L18" t="n">
-        <v>166.4981403413269</v>
+        <v>166.498140341327</v>
       </c>
       <c r="M18" t="n">
-        <v>194.2954765683962</v>
+        <v>194.2954765683963</v>
       </c>
       <c r="N18" t="n">
-        <v>199.4378996889272</v>
+        <v>199.4378996889274</v>
       </c>
       <c r="O18" t="n">
-        <v>182.4467148590235</v>
+        <v>182.4467148590236</v>
       </c>
       <c r="P18" t="n">
-        <v>146.4295734608765</v>
+        <v>146.4295734608766</v>
       </c>
       <c r="Q18" t="n">
-        <v>97.88429202088633</v>
+        <v>97.88429202088594</v>
       </c>
       <c r="R18" t="n">
-        <v>47.61029541807543</v>
+        <v>47.61029541807546</v>
       </c>
       <c r="S18" t="n">
-        <v>14.24340216837731</v>
+        <v>14.24340216837732</v>
       </c>
       <c r="T18" t="n">
-        <v>3.090835086833236</v>
+        <v>3.090835086833238</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05044888607453599</v>
+        <v>0.05044888607453602</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6428787012339774</v>
+        <v>0.6428787012339778</v>
       </c>
       <c r="H19" t="n">
-        <v>5.715776089153003</v>
+        <v>5.715776089153007</v>
       </c>
       <c r="I19" t="n">
-        <v>19.33311585165453</v>
+        <v>19.33311585165454</v>
       </c>
       <c r="J19" t="n">
-        <v>45.4515241772422</v>
+        <v>45.45152417724223</v>
       </c>
       <c r="K19" t="n">
-        <v>74.69081637972936</v>
+        <v>74.69081637972941</v>
       </c>
       <c r="L19" t="n">
-        <v>95.57852981800426</v>
+        <v>95.57852981800431</v>
       </c>
       <c r="M19" t="n">
-        <v>100.7741585943406</v>
+        <v>100.7741585943407</v>
       </c>
       <c r="N19" t="n">
-        <v>98.37797434428681</v>
+        <v>98.37797434428687</v>
       </c>
       <c r="O19" t="n">
-        <v>90.86798224350804</v>
+        <v>90.8679822435081</v>
       </c>
       <c r="P19" t="n">
-        <v>77.75325673833484</v>
+        <v>77.75325673833488</v>
       </c>
       <c r="Q19" t="n">
-        <v>53.83232470060151</v>
+        <v>53.83232470060155</v>
       </c>
       <c r="R19" t="n">
-        <v>28.90616414821138</v>
+        <v>28.9061641482114</v>
       </c>
       <c r="S19" t="n">
-        <v>11.2036224569594</v>
+        <v>11.20362245695941</v>
       </c>
       <c r="T19" t="n">
-        <v>2.746845359817903</v>
+        <v>2.746845359817904</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03506611097639881</v>
+        <v>0.03506611097639883</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.433187785300049</v>
+        <v>1.43318778530005</v>
       </c>
       <c r="H20" t="n">
-        <v>14.67763440620413</v>
+        <v>14.67763440620414</v>
       </c>
       <c r="I20" t="n">
-        <v>55.2529720927802</v>
+        <v>55.25297209278023</v>
       </c>
       <c r="J20" t="n">
         <v>121.6400217926102</v>
       </c>
       <c r="K20" t="n">
-        <v>182.3068607443613</v>
+        <v>182.3068607443614</v>
       </c>
       <c r="L20" t="n">
-        <v>226.1677814287377</v>
+        <v>226.1677814287378</v>
       </c>
       <c r="M20" t="n">
-        <v>251.6552347055674</v>
+        <v>251.6552347055676</v>
       </c>
       <c r="N20" t="n">
-        <v>255.7272795005512</v>
+        <v>255.7272795005514</v>
       </c>
       <c r="O20" t="n">
-        <v>241.4760184604739</v>
+        <v>241.476018460474</v>
       </c>
       <c r="P20" t="n">
-        <v>206.0941950108788</v>
+        <v>206.094195010879</v>
       </c>
       <c r="Q20" t="n">
-        <v>154.7681574498208</v>
+        <v>154.7681574498209</v>
       </c>
       <c r="R20" t="n">
-        <v>90.02748221835429</v>
+        <v>90.02748221835435</v>
       </c>
       <c r="S20" t="n">
-        <v>32.65876665752491</v>
+        <v>32.65876665752492</v>
       </c>
       <c r="T20" t="n">
-        <v>6.273779530150969</v>
+        <v>6.273779530150972</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1146550228240039</v>
+        <v>0.114655022824004</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7668230683329468</v>
+        <v>0.7668230683329472</v>
       </c>
       <c r="H21" t="n">
-        <v>7.405896475741882</v>
+        <v>7.405896475741886</v>
       </c>
       <c r="I21" t="n">
-        <v>26.40158371234049</v>
+        <v>26.40158371234051</v>
       </c>
       <c r="J21" t="n">
-        <v>72.44796366210529</v>
+        <v>72.44796366210535</v>
       </c>
       <c r="K21" t="n">
-        <v>123.8251092404127</v>
+        <v>123.8251092404128</v>
       </c>
       <c r="L21" t="n">
-        <v>166.4981403413269</v>
+        <v>166.498140341327</v>
       </c>
       <c r="M21" t="n">
-        <v>194.2954765683962</v>
+        <v>194.2954765683963</v>
       </c>
       <c r="N21" t="n">
-        <v>199.4378996889272</v>
+        <v>199.4378996889274</v>
       </c>
       <c r="O21" t="n">
-        <v>182.4467148590235</v>
+        <v>182.4467148590236</v>
       </c>
       <c r="P21" t="n">
-        <v>146.4295734608765</v>
+        <v>146.4295734608766</v>
       </c>
       <c r="Q21" t="n">
-        <v>97.88429202088633</v>
+        <v>97.88429202088582</v>
       </c>
       <c r="R21" t="n">
-        <v>47.61029541807543</v>
+        <v>47.61029541807546</v>
       </c>
       <c r="S21" t="n">
-        <v>14.24340216837731</v>
+        <v>14.24340216837732</v>
       </c>
       <c r="T21" t="n">
-        <v>3.090835086833236</v>
+        <v>3.090835086833238</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05044888607453599</v>
+        <v>0.05044888607453602</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6428787012339774</v>
+        <v>0.6428787012339778</v>
       </c>
       <c r="H22" t="n">
-        <v>5.715776089153003</v>
+        <v>5.715776089153007</v>
       </c>
       <c r="I22" t="n">
-        <v>19.33311585165453</v>
+        <v>19.33311585165454</v>
       </c>
       <c r="J22" t="n">
-        <v>45.4515241772422</v>
+        <v>45.45152417724223</v>
       </c>
       <c r="K22" t="n">
-        <v>74.69081637972936</v>
+        <v>74.69081637972941</v>
       </c>
       <c r="L22" t="n">
-        <v>95.57852981800426</v>
+        <v>95.57852981800431</v>
       </c>
       <c r="M22" t="n">
-        <v>100.7741585943406</v>
+        <v>100.7741585943407</v>
       </c>
       <c r="N22" t="n">
-        <v>98.37797434428681</v>
+        <v>98.37797434428687</v>
       </c>
       <c r="O22" t="n">
-        <v>90.86798224350804</v>
+        <v>90.8679822435081</v>
       </c>
       <c r="P22" t="n">
-        <v>77.75325673833484</v>
+        <v>77.75325673833488</v>
       </c>
       <c r="Q22" t="n">
-        <v>53.83232470060151</v>
+        <v>53.83232470060155</v>
       </c>
       <c r="R22" t="n">
-        <v>28.90616414821138</v>
+        <v>28.9061641482114</v>
       </c>
       <c r="S22" t="n">
-        <v>11.2036224569594</v>
+        <v>11.20362245695941</v>
       </c>
       <c r="T22" t="n">
-        <v>2.746845359817903</v>
+        <v>2.746845359817904</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03506611097639881</v>
+        <v>0.03506611097639883</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32733,13 +32733,13 @@
         <v>154.7681574498209</v>
       </c>
       <c r="R23" t="n">
-        <v>90.02748221835435</v>
+        <v>90.02748221835434</v>
       </c>
       <c r="S23" t="n">
         <v>32.65876665752492</v>
       </c>
       <c r="T23" t="n">
-        <v>6.273779530150972</v>
+        <v>6.273779530150971</v>
       </c>
       <c r="U23" t="n">
         <v>0.114655022824004</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7668230683329472</v>
+        <v>0.7668230683329471</v>
       </c>
       <c r="H24" t="n">
-        <v>7.405896475741886</v>
+        <v>7.405896475741885</v>
       </c>
       <c r="I24" t="n">
         <v>26.40158371234051</v>
       </c>
       <c r="J24" t="n">
-        <v>72.44796366210535</v>
+        <v>72.44796366210534</v>
       </c>
       <c r="K24" t="n">
         <v>123.8251092404128</v>
@@ -32800,28 +32800,28 @@
         <v>194.2954765683963</v>
       </c>
       <c r="N24" t="n">
-        <v>199.4378996889274</v>
+        <v>199.4378996889273</v>
       </c>
       <c r="O24" t="n">
-        <v>182.4467148590234</v>
+        <v>182.4467148590236</v>
       </c>
       <c r="P24" t="n">
         <v>146.4295734608766</v>
       </c>
       <c r="Q24" t="n">
-        <v>97.88429202088639</v>
+        <v>97.88429202088628</v>
       </c>
       <c r="R24" t="n">
-        <v>47.61029541807546</v>
+        <v>47.61029541807545</v>
       </c>
       <c r="S24" t="n">
         <v>14.24340216837732</v>
       </c>
       <c r="T24" t="n">
-        <v>3.090835086833238</v>
+        <v>3.090835086833237</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05044888607453602</v>
+        <v>0.05044888607453601</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,40 +32858,40 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6428787012339778</v>
+        <v>0.6428787012339777</v>
       </c>
       <c r="H25" t="n">
-        <v>5.715776089153007</v>
+        <v>5.715776089153006</v>
       </c>
       <c r="I25" t="n">
         <v>19.33311585165454</v>
       </c>
       <c r="J25" t="n">
-        <v>45.45152417724223</v>
+        <v>45.45152417724222</v>
       </c>
       <c r="K25" t="n">
-        <v>74.69081637972941</v>
+        <v>74.6908163797294</v>
       </c>
       <c r="L25" t="n">
-        <v>95.57852981800431</v>
+        <v>95.5785298180043</v>
       </c>
       <c r="M25" t="n">
         <v>100.7741585943407</v>
       </c>
       <c r="N25" t="n">
-        <v>98.37797434428687</v>
+        <v>98.37797434428686</v>
       </c>
       <c r="O25" t="n">
-        <v>90.8679822435081</v>
+        <v>90.86798224350808</v>
       </c>
       <c r="P25" t="n">
-        <v>77.75325673833488</v>
+        <v>77.75325673833487</v>
       </c>
       <c r="Q25" t="n">
-        <v>53.83232470060155</v>
+        <v>53.83232470060154</v>
       </c>
       <c r="R25" t="n">
-        <v>28.9061641482114</v>
+        <v>28.90616414821139</v>
       </c>
       <c r="S25" t="n">
         <v>11.20362245695941</v>
@@ -32970,13 +32970,13 @@
         <v>154.7681574498209</v>
       </c>
       <c r="R26" t="n">
-        <v>90.02748221835435</v>
+        <v>90.02748221835434</v>
       </c>
       <c r="S26" t="n">
         <v>32.65876665752492</v>
       </c>
       <c r="T26" t="n">
-        <v>6.273779530150972</v>
+        <v>6.273779530150971</v>
       </c>
       <c r="U26" t="n">
         <v>0.114655022824004</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7668230683329472</v>
+        <v>0.7668230683329471</v>
       </c>
       <c r="H27" t="n">
-        <v>7.405896475741886</v>
+        <v>7.405896475741885</v>
       </c>
       <c r="I27" t="n">
         <v>26.40158371234051</v>
       </c>
       <c r="J27" t="n">
-        <v>72.44796366210535</v>
+        <v>72.44796366210534</v>
       </c>
       <c r="K27" t="n">
         <v>123.8251092404128</v>
@@ -33037,7 +33037,7 @@
         <v>194.2954765683963</v>
       </c>
       <c r="N27" t="n">
-        <v>199.4378996889274</v>
+        <v>199.4378996889273</v>
       </c>
       <c r="O27" t="n">
         <v>182.4467148590236</v>
@@ -33046,19 +33046,19 @@
         <v>146.4295734608766</v>
       </c>
       <c r="Q27" t="n">
-        <v>97.88429202088628</v>
+        <v>97.88429202088594</v>
       </c>
       <c r="R27" t="n">
-        <v>47.61029541807546</v>
+        <v>47.61029541807545</v>
       </c>
       <c r="S27" t="n">
         <v>14.24340216837732</v>
       </c>
       <c r="T27" t="n">
-        <v>3.090835086833238</v>
+        <v>3.090835086833237</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05044888607453602</v>
+        <v>0.05044888607453601</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,40 +33095,40 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6428787012339778</v>
+        <v>0.6428787012339777</v>
       </c>
       <c r="H28" t="n">
-        <v>5.715776089153007</v>
+        <v>5.715776089153006</v>
       </c>
       <c r="I28" t="n">
         <v>19.33311585165454</v>
       </c>
       <c r="J28" t="n">
-        <v>45.45152417724223</v>
+        <v>45.45152417724222</v>
       </c>
       <c r="K28" t="n">
-        <v>74.69081637972941</v>
+        <v>74.6908163797294</v>
       </c>
       <c r="L28" t="n">
-        <v>95.57852981800431</v>
+        <v>95.5785298180043</v>
       </c>
       <c r="M28" t="n">
         <v>100.7741585943407</v>
       </c>
       <c r="N28" t="n">
-        <v>98.37797434428687</v>
+        <v>98.37797434428686</v>
       </c>
       <c r="O28" t="n">
-        <v>90.8679822435081</v>
+        <v>90.86798224350808</v>
       </c>
       <c r="P28" t="n">
-        <v>77.75325673833488</v>
+        <v>77.75325673833487</v>
       </c>
       <c r="Q28" t="n">
-        <v>53.83232470060155</v>
+        <v>53.83232470060154</v>
       </c>
       <c r="R28" t="n">
-        <v>28.9061641482114</v>
+        <v>28.90616414821139</v>
       </c>
       <c r="S28" t="n">
         <v>11.20362245695941</v>
@@ -33520,7 +33520,7 @@
         <v>146.4295734608766</v>
       </c>
       <c r="Q33" t="n">
-        <v>97.88429202088599</v>
+        <v>97.88429202088638</v>
       </c>
       <c r="R33" t="n">
         <v>47.61029541807545</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.43318778530005</v>
+        <v>1.433187785300051</v>
       </c>
       <c r="H44" t="n">
-        <v>14.67763440620414</v>
+        <v>14.67763440620415</v>
       </c>
       <c r="I44" t="n">
-        <v>55.25297209278023</v>
+        <v>55.25297209278027</v>
       </c>
       <c r="J44" t="n">
-        <v>121.6400217926102</v>
+        <v>121.6400217926103</v>
       </c>
       <c r="K44" t="n">
-        <v>182.3068607443614</v>
+        <v>182.3068607443615</v>
       </c>
       <c r="L44" t="n">
-        <v>226.1677814287378</v>
+        <v>226.167781428738</v>
       </c>
       <c r="M44" t="n">
-        <v>251.6552347055676</v>
+        <v>251.6552347055678</v>
       </c>
       <c r="N44" t="n">
-        <v>255.7272795005514</v>
+        <v>255.7272795005516</v>
       </c>
       <c r="O44" t="n">
-        <v>241.476018460474</v>
+        <v>241.4760184604742</v>
       </c>
       <c r="P44" t="n">
-        <v>206.094195010879</v>
+        <v>206.0941950108791</v>
       </c>
       <c r="Q44" t="n">
-        <v>154.7681574498209</v>
+        <v>154.768157449821</v>
       </c>
       <c r="R44" t="n">
-        <v>90.02748221835434</v>
+        <v>90.02748221835441</v>
       </c>
       <c r="S44" t="n">
-        <v>32.65876665752492</v>
+        <v>32.65876665752494</v>
       </c>
       <c r="T44" t="n">
-        <v>6.273779530150971</v>
+        <v>6.273779530150977</v>
       </c>
       <c r="U44" t="n">
-        <v>0.114655022824004</v>
+        <v>0.1146550228240041</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7668230683329471</v>
+        <v>0.7668230683329478</v>
       </c>
       <c r="H45" t="n">
-        <v>7.405896475741885</v>
+        <v>7.405896475741891</v>
       </c>
       <c r="I45" t="n">
-        <v>26.40158371234051</v>
+        <v>26.40158371234053</v>
       </c>
       <c r="J45" t="n">
-        <v>72.44796366210534</v>
+        <v>72.44796366210539</v>
       </c>
       <c r="K45" t="n">
-        <v>123.8251092404128</v>
+        <v>123.8251092404129</v>
       </c>
       <c r="L45" t="n">
-        <v>166.498140341327</v>
+        <v>166.4981403413271</v>
       </c>
       <c r="M45" t="n">
-        <v>194.2954765683963</v>
+        <v>194.2954765683964</v>
       </c>
       <c r="N45" t="n">
-        <v>199.4378996889273</v>
+        <v>199.4378996889275</v>
       </c>
       <c r="O45" t="n">
-        <v>182.4467148590236</v>
+        <v>182.4467148590237</v>
       </c>
       <c r="P45" t="n">
-        <v>146.4295734608766</v>
+        <v>146.4295734608767</v>
       </c>
       <c r="Q45" t="n">
-        <v>97.88429202088638</v>
+        <v>97.88429202088646</v>
       </c>
       <c r="R45" t="n">
-        <v>47.61029541807545</v>
+        <v>47.61029541807549</v>
       </c>
       <c r="S45" t="n">
-        <v>14.24340216837732</v>
+        <v>14.24340216837733</v>
       </c>
       <c r="T45" t="n">
-        <v>3.090835086833237</v>
+        <v>3.09083508683324</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05044888607453601</v>
+        <v>0.05044888607453606</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6428787012339777</v>
+        <v>0.6428787012339782</v>
       </c>
       <c r="H46" t="n">
-        <v>5.715776089153006</v>
+        <v>5.71577608915301</v>
       </c>
       <c r="I46" t="n">
-        <v>19.33311585165454</v>
+        <v>19.33311585165455</v>
       </c>
       <c r="J46" t="n">
-        <v>45.45152417724222</v>
+        <v>45.45152417724226</v>
       </c>
       <c r="K46" t="n">
-        <v>74.6908163797294</v>
+        <v>74.69081637972945</v>
       </c>
       <c r="L46" t="n">
-        <v>95.5785298180043</v>
+        <v>95.57852981800438</v>
       </c>
       <c r="M46" t="n">
-        <v>100.7741585943407</v>
+        <v>100.7741585943408</v>
       </c>
       <c r="N46" t="n">
-        <v>98.37797434428686</v>
+        <v>98.37797434428694</v>
       </c>
       <c r="O46" t="n">
-        <v>90.86798224350808</v>
+        <v>90.86798224350815</v>
       </c>
       <c r="P46" t="n">
-        <v>77.75325673833487</v>
+        <v>77.75325673833494</v>
       </c>
       <c r="Q46" t="n">
-        <v>53.83232470060154</v>
+        <v>53.83232470060158</v>
       </c>
       <c r="R46" t="n">
-        <v>28.90616414821139</v>
+        <v>28.90616414821141</v>
       </c>
       <c r="S46" t="n">
-        <v>11.20362245695941</v>
+        <v>11.20362245695942</v>
       </c>
       <c r="T46" t="n">
-        <v>2.746845359817904</v>
+        <v>2.746845359817906</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03506611097639883</v>
+        <v>0.03506611097639886</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35500,16 +35500,16 @@
         <v>89.01610672413362</v>
       </c>
       <c r="N12" t="n">
-        <v>69.84102645989908</v>
+        <v>95.44997870766072</v>
       </c>
       <c r="O12" t="n">
         <v>77.65311882052951</v>
       </c>
       <c r="P12" t="n">
-        <v>49.63004654191565</v>
+        <v>24.42223610487257</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.4011418107185278</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>27.15170027078463</v>
+        <v>27.15170027078469</v>
       </c>
       <c r="L14" t="n">
-        <v>57.91251460616778</v>
+        <v>57.91251460616783</v>
       </c>
       <c r="M14" t="n">
-        <v>85.2318960348596</v>
+        <v>85.23189603485969</v>
       </c>
       <c r="N14" t="n">
-        <v>89.64030534742409</v>
+        <v>89.64030534742417</v>
       </c>
       <c r="O14" t="n">
-        <v>75.88932388337207</v>
+        <v>75.88932388337216</v>
       </c>
       <c r="P14" t="n">
-        <v>42.11760989176526</v>
+        <v>42.11760989176531</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>26.0119044408045</v>
+        <v>26.01190444080454</v>
       </c>
       <c r="L15" t="n">
-        <v>65.39000523637277</v>
+        <v>65.3900052363728</v>
       </c>
       <c r="M15" t="n">
-        <v>89.01610672413356</v>
+        <v>89.01610672413362</v>
       </c>
       <c r="N15" t="n">
-        <v>95.44997870766059</v>
+        <v>95.44997870766073</v>
       </c>
       <c r="O15" t="n">
-        <v>52.04416657276773</v>
+        <v>77.65311882052951</v>
       </c>
       <c r="P15" t="n">
-        <v>49.63004654191559</v>
+        <v>24.42223610487262</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.4011418107184852</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35810,13 +35810,13 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1.561489319614367</v>
+        <v>1.561489319614395</v>
       </c>
       <c r="M16" t="n">
-        <v>3.785648277056282</v>
+        <v>3.78564827705631</v>
       </c>
       <c r="N16" t="n">
-        <v>8.854615677788232</v>
+        <v>8.85461567778826</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>3.960183850264059</v>
+        <v>3.960183850264144</v>
       </c>
       <c r="K17" t="n">
-        <v>39.24845756512391</v>
+        <v>39.24845756512403</v>
       </c>
       <c r="L17" t="n">
-        <v>72.919611698246</v>
+        <v>72.91961169824614</v>
       </c>
       <c r="M17" t="n">
-        <v>101.9301831078402</v>
+        <v>101.9301831078403</v>
       </c>
       <c r="N17" t="n">
-        <v>106.6087881627672</v>
+        <v>106.6087881627673</v>
       </c>
       <c r="O17" t="n">
-        <v>91.91218103637746</v>
+        <v>91.9121810363776</v>
       </c>
       <c r="P17" t="n">
-        <v>55.79274776995365</v>
+        <v>55.79274776995379</v>
       </c>
       <c r="Q17" t="n">
-        <v>10.26945903142862</v>
+        <v>10.26945903142874</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>34.22817390707867</v>
+        <v>34.22817390707945</v>
       </c>
       <c r="L18" t="n">
-        <v>76.43779348440866</v>
+        <v>76.43779348440877</v>
       </c>
       <c r="M18" t="n">
-        <v>101.9083545190843</v>
+        <v>101.9083545190844</v>
       </c>
       <c r="N18" t="n">
-        <v>114.0657868347606</v>
+        <v>114.0657868347607</v>
       </c>
       <c r="O18" t="n">
-        <v>89.75915597013461</v>
+        <v>89.75915597013473</v>
       </c>
       <c r="P18" t="n">
-        <v>59.34620864156182</v>
+        <v>59.34620864156193</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.896138864972343</v>
+        <v>6.896138864971939</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36047,16 +36047,16 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>7.903490235199371</v>
+        <v>7.903490235199428</v>
       </c>
       <c r="M19" t="n">
-        <v>10.47239902839738</v>
+        <v>10.47239902839743</v>
       </c>
       <c r="N19" t="n">
-        <v>15.38237044188524</v>
+        <v>15.3823704418853</v>
       </c>
       <c r="O19" t="n">
-        <v>0.8712322498102338</v>
+        <v>0.8712322498102907</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>3.960183850264059</v>
+        <v>3.960183850264144</v>
       </c>
       <c r="K20" t="n">
-        <v>39.24845756512391</v>
+        <v>39.24845756512403</v>
       </c>
       <c r="L20" t="n">
-        <v>72.919611698246</v>
+        <v>72.91961169824614</v>
       </c>
       <c r="M20" t="n">
-        <v>101.9301831078402</v>
+        <v>101.9301831078403</v>
       </c>
       <c r="N20" t="n">
-        <v>106.6087881627672</v>
+        <v>106.6087881627673</v>
       </c>
       <c r="O20" t="n">
-        <v>91.91218103637746</v>
+        <v>91.9121810363776</v>
       </c>
       <c r="P20" t="n">
-        <v>55.79274776995365</v>
+        <v>55.79274776995379</v>
       </c>
       <c r="Q20" t="n">
-        <v>10.26945903142862</v>
+        <v>10.26945903142874</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>34.22817390707938</v>
+        <v>34.22817390707945</v>
       </c>
       <c r="L21" t="n">
-        <v>76.43779348440866</v>
+        <v>76.43779348440877</v>
       </c>
       <c r="M21" t="n">
-        <v>101.9083545190843</v>
+        <v>101.9083545190844</v>
       </c>
       <c r="N21" t="n">
-        <v>114.0657868347606</v>
+        <v>114.0657868347607</v>
       </c>
       <c r="O21" t="n">
-        <v>89.75915597013461</v>
+        <v>89.75915597013473</v>
       </c>
       <c r="P21" t="n">
-        <v>59.34620864156182</v>
+        <v>59.34620864156193</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.896138864972343</v>
+        <v>6.896138864971824</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36284,16 +36284,16 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>7.903490235199371</v>
+        <v>7.903490235199428</v>
       </c>
       <c r="M22" t="n">
-        <v>10.47239902839738</v>
+        <v>10.47239902839743</v>
       </c>
       <c r="N22" t="n">
-        <v>15.38237044188524</v>
+        <v>15.3823704418853</v>
       </c>
       <c r="O22" t="n">
-        <v>0.8712322498102338</v>
+        <v>0.8712322498102907</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -36357,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>3.960183850264144</v>
+        <v>3.960183850264116</v>
       </c>
       <c r="K23" t="n">
-        <v>39.24845756512403</v>
+        <v>39.248457565124</v>
       </c>
       <c r="L23" t="n">
-        <v>72.91961169824614</v>
+        <v>72.91961169824611</v>
       </c>
       <c r="M23" t="n">
         <v>101.9301831078403</v>
@@ -36372,13 +36372,13 @@
         <v>106.6087881627673</v>
       </c>
       <c r="O23" t="n">
-        <v>91.9121810363776</v>
+        <v>91.91218103637758</v>
       </c>
       <c r="P23" t="n">
-        <v>55.79274776995379</v>
+        <v>55.79274776995376</v>
       </c>
       <c r="Q23" t="n">
-        <v>10.26945903142874</v>
+        <v>10.26945903142871</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>34.22817390707945</v>
+        <v>34.22817390707944</v>
       </c>
       <c r="L24" t="n">
-        <v>76.43779348440877</v>
+        <v>76.43779348440874</v>
       </c>
       <c r="M24" t="n">
-        <v>101.9083545190844</v>
+        <v>101.9083545190843</v>
       </c>
       <c r="N24" t="n">
         <v>114.0657868347607</v>
       </c>
       <c r="O24" t="n">
-        <v>89.75915597013451</v>
+        <v>89.7591559701347</v>
       </c>
       <c r="P24" t="n">
-        <v>59.34620864156193</v>
+        <v>59.3462086415619</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.8961388649724</v>
+        <v>6.896138864972284</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36521,16 +36521,16 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>7.903490235199428</v>
+        <v>7.903490235199413</v>
       </c>
       <c r="M25" t="n">
-        <v>10.47239902839743</v>
+        <v>10.47239902839742</v>
       </c>
       <c r="N25" t="n">
-        <v>15.3823704418853</v>
+        <v>15.38237044188529</v>
       </c>
       <c r="O25" t="n">
-        <v>0.8712322498102907</v>
+        <v>0.8712322498102765</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -36594,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>3.960183850264144</v>
+        <v>3.960183850264116</v>
       </c>
       <c r="K26" t="n">
-        <v>39.24845756512403</v>
+        <v>39.248457565124</v>
       </c>
       <c r="L26" t="n">
-        <v>72.91961169824614</v>
+        <v>72.91961169824611</v>
       </c>
       <c r="M26" t="n">
         <v>101.9301831078403</v>
@@ -36609,13 +36609,13 @@
         <v>106.6087881627673</v>
       </c>
       <c r="O26" t="n">
-        <v>91.9121810363776</v>
+        <v>91.91218103637758</v>
       </c>
       <c r="P26" t="n">
-        <v>55.79274776995379</v>
+        <v>55.79274776995376</v>
       </c>
       <c r="Q26" t="n">
-        <v>10.26945903142874</v>
+        <v>10.26945903142871</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>34.22817390707945</v>
+        <v>34.22817390707944</v>
       </c>
       <c r="L27" t="n">
-        <v>76.43779348440877</v>
+        <v>76.43779348440874</v>
       </c>
       <c r="M27" t="n">
-        <v>101.9083545190844</v>
+        <v>101.9083545190843</v>
       </c>
       <c r="N27" t="n">
         <v>114.0657868347607</v>
       </c>
       <c r="O27" t="n">
-        <v>89.75915597013473</v>
+        <v>89.7591559701347</v>
       </c>
       <c r="P27" t="n">
-        <v>59.34620864156193</v>
+        <v>59.3462086415619</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.896138864972284</v>
+        <v>6.896138864971939</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36758,16 +36758,16 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>7.903490235199428</v>
+        <v>7.903490235199413</v>
       </c>
       <c r="M28" t="n">
-        <v>10.47239902839743</v>
+        <v>10.47239902839742</v>
       </c>
       <c r="N28" t="n">
-        <v>15.3823704418853</v>
+        <v>15.38237044188529</v>
       </c>
       <c r="O28" t="n">
-        <v>0.8712322498102907</v>
+        <v>0.8712322498102765</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>59.3462086415619</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.896138864971997</v>
+        <v>6.896138864972386</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>3.960183850264116</v>
       </c>
       <c r="K41" t="n">
-        <v>39.24845756512401</v>
+        <v>39.248457565124</v>
       </c>
       <c r="L41" t="n">
         <v>72.91961169824611</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>3.960183850264116</v>
+        <v>3.960183850264215</v>
       </c>
       <c r="K44" t="n">
-        <v>39.248457565124</v>
+        <v>39.24845756512414</v>
       </c>
       <c r="L44" t="n">
-        <v>72.91961169824611</v>
+        <v>72.91961169824631</v>
       </c>
       <c r="M44" t="n">
-        <v>101.9301831078403</v>
+        <v>101.9301831078405</v>
       </c>
       <c r="N44" t="n">
-        <v>106.6087881627673</v>
+        <v>106.6087881627675</v>
       </c>
       <c r="O44" t="n">
-        <v>91.91218103637758</v>
+        <v>91.91218103637777</v>
       </c>
       <c r="P44" t="n">
-        <v>55.79274776995376</v>
+        <v>55.79274776995393</v>
       </c>
       <c r="Q44" t="n">
-        <v>10.26945903142871</v>
+        <v>10.26945903142882</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>34.22817390707944</v>
+        <v>34.22817390707954</v>
       </c>
       <c r="L45" t="n">
-        <v>76.43779348440874</v>
+        <v>76.43779348440889</v>
       </c>
       <c r="M45" t="n">
-        <v>101.9083545190843</v>
+        <v>101.9083545190845</v>
       </c>
       <c r="N45" t="n">
-        <v>114.0657868347607</v>
+        <v>114.0657868347608</v>
       </c>
       <c r="O45" t="n">
-        <v>89.7591559701347</v>
+        <v>89.75915597013484</v>
       </c>
       <c r="P45" t="n">
-        <v>59.3462086415619</v>
+        <v>59.34620864156201</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.896138864972386</v>
+        <v>6.896138864972471</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38180,16 +38180,16 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>7.903490235199413</v>
+        <v>7.903490235199499</v>
       </c>
       <c r="M46" t="n">
-        <v>10.47239902839742</v>
+        <v>10.4723990283975</v>
       </c>
       <c r="N46" t="n">
-        <v>15.38237044188529</v>
+        <v>15.38237044188537</v>
       </c>
       <c r="O46" t="n">
-        <v>0.8712322498102765</v>
+        <v>0.8712322498103475</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
